--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="178">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -1877,6 +1877,53 @@
     <t xml:space="preserve">增值税专用发票</t>
   </si>
   <si>
+    <t xml:space="preserve">巨野县万丰镇康民大药房胜振店</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">50ml×1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">×100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">盒</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">成武纯杰诊所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">痔疮栓</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -2035,44 +2082,6 @@
   </si>
   <si>
     <t xml:space="preserve">修正牌骨质增生痛贴</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">50ml×1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">×100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">盒</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">口丽爽喷嗽液</t>
@@ -2740,7 +2749,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2861,6 +2870,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2946,16 +2963,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B179:L187 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B190:L211 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6259842519685"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3346456692913"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.3110236220472"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9370078740157"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6259842519685"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4566929133858"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8976377952756"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.3740157480315"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7086614173228"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.4566929133858"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3088,26 +3105,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B179" activeCellId="0" sqref="B179:L187"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190:L211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.25196850393701"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5196850393701"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8976377952756"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="23.751968503937"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1889763779528"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.22834645669291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6889763779528"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.251968503937"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1889763779528"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="9.89763779527559"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="21.3543307086614"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.66535433070866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3543307086614"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.4370078740158"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="25.8346456692913"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5826771653543"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.85433070866142"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9370078740157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0196850393701"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2283464566929"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="10.7283464566929"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="23.3346456692913"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8993,7 +9010,7 @@
         <v>49</v>
       </c>
       <c r="L169" s="15" t="n">
-        <v>17854079334</v>
+        <v>17854079333</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9029,7 +9046,7 @@
         <v>49</v>
       </c>
       <c r="L170" s="15" t="n">
-        <v>17854079335</v>
+        <v>17854079333</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9290,7 +9307,7 @@
         <v>18754095125</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
         <v>36</v>
       </c>
@@ -9612,6 +9629,797 @@
       </c>
       <c r="L187" s="15" t="n">
         <v>17854079333</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H190" s="12" t="n">
+        <f aca="false">F190*G190</f>
+        <v>210</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K190" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L190" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H191" s="12" t="n">
+        <f aca="false">F191*G191</f>
+        <v>26</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K191" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L191" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G192" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H192" s="12" t="n">
+        <f aca="false">F192*G192</f>
+        <v>18</v>
+      </c>
+      <c r="I192" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K192" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L192" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H193" s="12" t="n">
+        <f aca="false">F193*G193</f>
+        <v>1260</v>
+      </c>
+      <c r="I193" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K193" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L193" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G194" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H194" s="12" t="n">
+        <f aca="false">F194*G194</f>
+        <v>108</v>
+      </c>
+      <c r="I194" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K194" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L194" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H195" s="12" t="n">
+        <f aca="false">F195*G195</f>
+        <v>156</v>
+      </c>
+      <c r="I195" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K195" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L195" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H196" s="12" t="n">
+        <f aca="false">F196*G196</f>
+        <v>750</v>
+      </c>
+      <c r="I196" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K196" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L196" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H197" s="12" t="n">
+        <f aca="false">F197*G197</f>
+        <v>3780</v>
+      </c>
+      <c r="I197" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K197" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L197" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="G198" s="30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H198" s="12" t="n">
+        <f aca="false">F198*G198</f>
+        <v>988</v>
+      </c>
+      <c r="I198" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K198" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L198" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H199" s="12" t="n">
+        <f aca="false">F199*G199</f>
+        <v>976</v>
+      </c>
+      <c r="I199" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K199" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L199" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H200" s="12" t="n">
+        <f aca="false">F200*G200</f>
+        <v>6300</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K200" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L200" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H201" s="12" t="n">
+        <f aca="false">F201*G201</f>
+        <v>780</v>
+      </c>
+      <c r="I201" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K201" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L201" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G202" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H202" s="12" t="n">
+        <f aca="false">F202*G202</f>
+        <v>360</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K202" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L202" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="G203" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H203" s="12" t="n">
+        <f aca="false">F203*G203</f>
+        <v>1440</v>
+      </c>
+      <c r="I203" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K203" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L203" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H204" s="12" t="n">
+        <f aca="false">F204*G204</f>
+        <v>3780</v>
+      </c>
+      <c r="I204" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K204" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L204" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D205" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H205" s="12" t="n">
+        <f aca="false">F205*G205</f>
+        <v>312</v>
+      </c>
+      <c r="I205" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L205" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H206" s="12" t="n">
+        <f aca="false">F206*G206</f>
+        <v>2250</v>
+      </c>
+      <c r="I206" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K206" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L206" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H207" s="12" t="n">
+        <f aca="false">F207*G207</f>
+        <v>590</v>
+      </c>
+      <c r="I207" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K207" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L207" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F208" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H208" s="12" t="n">
+        <v>380</v>
+      </c>
+      <c r="I208" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K208" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L208" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G209" s="28" t="n">
+        <v>23</v>
+      </c>
+      <c r="H209" s="12" t="n">
+        <f aca="false">F209*G209</f>
+        <v>115</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K209" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L209" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G210" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H210" s="12" t="n">
+        <f aca="false">F210*G210</f>
+        <v>72</v>
+      </c>
+      <c r="I210" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K210" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L210" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D211" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G211" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H211" s="12" t="n">
+        <f aca="false">F211*G211</f>
+        <v>540</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K211" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L211" s="15" t="n">
+        <v>18678537472</v>
       </c>
     </row>
   </sheetData>
@@ -9639,25 +10447,25 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B179:L187 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B190:L211 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85433070866142"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4370078740157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.6653543307087"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3740157480315"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.22834645669291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6889763779528"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7913385826772"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6259842519685"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68897637795276"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5826771653543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4803149606299"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1456692913386"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1889763779528"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.85433070866142"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9370078740157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0433070866142"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.4566929133858"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9670,7 +10478,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9761,7 +10569,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="30"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -10213,21 +11021,21 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="1" sqref="B179:L187 B26"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B190:L211 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85433070866142"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6653543307087"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8740157480315"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7913385826772"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6259842519685"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68897637795276"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0629921259843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2716535433071"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0433070866142"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.4566929133858"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10312,7 +11120,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -10324,7 +11132,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -10336,7 +11144,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -10348,7 +11156,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -10411,7 +11219,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -10420,10 +11228,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -10447,7 +11255,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -10480,10 +11288,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -10504,7 +11312,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -10516,7 +11324,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -10579,7 +11387,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -10591,7 +11399,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -10600,10 +11408,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -10627,7 +11435,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -10636,10 +11444,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -10648,10 +11456,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -10660,10 +11468,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="187">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -1922,6 +1922,84 @@
   </si>
   <si>
     <t xml:space="preserve">痔疮栓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野万丰镇康民大药房</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12g×10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">袋</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野麒麟镇康达药店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野县开发区吴堂卫生室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">菏泽二部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野田桥镇爱心人大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野康源大药房</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">×5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">袋</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野宇康大药房</t>
   </si>
   <si>
     <r>
@@ -2560,7 +2638,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2670,13 +2748,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2687,6 +2770,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
@@ -2749,7 +2838,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2878,7 +2967,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2963,16 +3076,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B190:L211 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4566929133858"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8976377952756"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.3740157480315"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7086614173228"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.4566929133858"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6653543307087"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.8543307086614"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6889763779528"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3105,26 +3218,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190:L211"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B302" activeCellId="0" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.66535433070866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3543307086614"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.4370078740158"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="25.8346456692913"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5826771653543"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.85433070866142"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9370078740157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0196850393701"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2283464566929"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="10.7283464566929"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="23.3346456692913"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29133858267717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3976377952756"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2913385826772"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="28.1259842519685"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1889763779528"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="9.68897637795276"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2913385826772"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3740157480315"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="11.6653543307087"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="25.3110236220472"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9631,6 +9744,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="L188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="L189" s="0"/>
+    </row>
     <row r="190" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
         <v>36</v>
@@ -10420,6 +10543,2273 @@
       </c>
       <c r="L211" s="15" t="n">
         <v>18678537472</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H213" s="12" t="n">
+        <f aca="false">F213*G213</f>
+        <v>3780</v>
+      </c>
+      <c r="I213" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K213" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L213" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F214" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H214" s="12" t="n">
+        <f aca="false">F214*G214</f>
+        <v>104</v>
+      </c>
+      <c r="I214" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K214" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L214" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G215" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H215" s="12" t="n">
+        <f aca="false">F215*G215</f>
+        <v>72</v>
+      </c>
+      <c r="I215" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K215" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L215" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H216" s="12" t="n">
+        <f aca="false">F216*G216</f>
+        <v>364</v>
+      </c>
+      <c r="I216" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K216" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L216" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="G217" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H217" s="12" t="n">
+        <f aca="false">F217*G217</f>
+        <v>252</v>
+      </c>
+      <c r="I217" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K217" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L217" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F218" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H218" s="12" t="n">
+        <f aca="false">F218*G218</f>
+        <v>750</v>
+      </c>
+      <c r="I218" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K218" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L218" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H219" s="12" t="n">
+        <f aca="false">F219*G219</f>
+        <v>225</v>
+      </c>
+      <c r="I219" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K219" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L219" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H221" s="12" t="n">
+        <f aca="false">F221*G221</f>
+        <v>210</v>
+      </c>
+      <c r="I221" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K221" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L221" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H222" s="12" t="n">
+        <f aca="false">F222*G222</f>
+        <v>26</v>
+      </c>
+      <c r="I222" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K222" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L222" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G223" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H223" s="12" t="n">
+        <f aca="false">F223*G223</f>
+        <v>18</v>
+      </c>
+      <c r="I223" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K223" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L223" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H224" s="12" t="n">
+        <f aca="false">F224*G224</f>
+        <v>130</v>
+      </c>
+      <c r="I224" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K224" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L224" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H225" s="12" t="n">
+        <f aca="false">F225*G225</f>
+        <v>315</v>
+      </c>
+      <c r="I225" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K225" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L225" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H226" s="12" t="n">
+        <f aca="false">F226*G226</f>
+        <v>78</v>
+      </c>
+      <c r="I226" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K226" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L226" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H227" s="12" t="n">
+        <f aca="false">F227*G227</f>
+        <v>225</v>
+      </c>
+      <c r="I227" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K227" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L227" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D228" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E228" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F228" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="G228" s="34" t="n">
+        <v>14</v>
+      </c>
+      <c r="H228" s="17" t="n">
+        <f aca="false">F228*G228</f>
+        <v>1680</v>
+      </c>
+      <c r="I228" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K228" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L228" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H230" s="12" t="n">
+        <f aca="false">F230*G230</f>
+        <v>750</v>
+      </c>
+      <c r="I230" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K230" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L230" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C232" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F232" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H232" s="12" t="n">
+        <f aca="false">F232*G232</f>
+        <v>375</v>
+      </c>
+      <c r="I232" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K232" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L232" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C233" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F233" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H233" s="12" t="n">
+        <f aca="false">F233*G233</f>
+        <v>6300</v>
+      </c>
+      <c r="I233" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K233" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L233" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C234" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D234" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F234" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H234" s="12" t="n">
+        <f aca="false">F234*G234</f>
+        <v>780</v>
+      </c>
+      <c r="I234" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K234" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L234" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C235" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F235" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G235" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H235" s="12" t="n">
+        <f aca="false">F235*G235</f>
+        <v>360</v>
+      </c>
+      <c r="I235" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K235" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L235" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C236" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F236" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G236" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H236" s="12" t="n">
+        <f aca="false">F236*G236</f>
+        <v>720</v>
+      </c>
+      <c r="I236" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K236" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L236" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F238" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H238" s="12" t="n">
+        <f aca="false">F238*G238</f>
+        <v>1350</v>
+      </c>
+      <c r="I238" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K238" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L238" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H239" s="12" t="n">
+        <f aca="false">F239*G239</f>
+        <v>750</v>
+      </c>
+      <c r="I239" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K239" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L239" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H240" s="12" t="n">
+        <f aca="false">F240*G240</f>
+        <v>3780</v>
+      </c>
+      <c r="I240" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K240" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L240" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H241" s="12" t="n">
+        <f aca="false">F241*G241</f>
+        <v>6300</v>
+      </c>
+      <c r="I241" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K241" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L241" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D242" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F242" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H242" s="12" t="n">
+        <f aca="false">F242*G242</f>
+        <v>780</v>
+      </c>
+      <c r="I242" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K242" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L242" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F244" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H244" s="12" t="n">
+        <f aca="false">F244*G244</f>
+        <v>210</v>
+      </c>
+      <c r="I244" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J244" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K244" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L244" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D245" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F245" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H245" s="12" t="n">
+        <f aca="false">F245*G245</f>
+        <v>26</v>
+      </c>
+      <c r="I245" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K245" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L245" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F246" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G246" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H246" s="12" t="n">
+        <f aca="false">F246*G246</f>
+        <v>18</v>
+      </c>
+      <c r="I246" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K246" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L246" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F247" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H247" s="12" t="n">
+        <f aca="false">F247*G247</f>
+        <v>1260</v>
+      </c>
+      <c r="I247" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K247" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L247" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F248" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G248" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H248" s="12" t="n">
+        <f aca="false">F248*G248</f>
+        <v>108</v>
+      </c>
+      <c r="I248" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K248" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L248" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D249" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F249" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H249" s="12" t="n">
+        <f aca="false">F249*G249</f>
+        <v>156</v>
+      </c>
+      <c r="I249" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K249" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L249" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F250" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H250" s="12" t="n">
+        <f aca="false">F250*G250</f>
+        <v>750</v>
+      </c>
+      <c r="I250" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K250" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L250" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F251" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H251" s="12" t="n">
+        <f aca="false">F251*G251</f>
+        <v>3780</v>
+      </c>
+      <c r="I251" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K251" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L251" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D252" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F252" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="G252" s="30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H252" s="12" t="n">
+        <f aca="false">F252*G252</f>
+        <v>988</v>
+      </c>
+      <c r="I252" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K252" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L252" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F253" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H253" s="12" t="n">
+        <f aca="false">F253*G253</f>
+        <v>976</v>
+      </c>
+      <c r="I253" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J253" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K253" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L253" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F254" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H254" s="12" t="n">
+        <f aca="false">F254*G254</f>
+        <v>6300</v>
+      </c>
+      <c r="I254" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J254" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K254" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L254" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D255" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F255" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H255" s="12" t="n">
+        <f aca="false">F255*G255</f>
+        <v>780</v>
+      </c>
+      <c r="I255" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K255" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L255" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F256" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G256" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H256" s="12" t="n">
+        <f aca="false">F256*G256</f>
+        <v>360</v>
+      </c>
+      <c r="I256" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J256" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K256" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L256" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D257" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F257" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="G257" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H257" s="12" t="n">
+        <f aca="false">F257*G257</f>
+        <v>1440</v>
+      </c>
+      <c r="I257" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K257" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L257" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F258" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H258" s="12" t="n">
+        <f aca="false">F258*G258</f>
+        <v>3780</v>
+      </c>
+      <c r="I258" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K258" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L258" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D259" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F259" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H259" s="12" t="n">
+        <f aca="false">F259*G259</f>
+        <v>312</v>
+      </c>
+      <c r="I259" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K259" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L259" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F260" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H260" s="12" t="n">
+        <f aca="false">F260*G260</f>
+        <v>2250</v>
+      </c>
+      <c r="I260" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K260" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L260" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F261" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G261" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H261" s="12" t="n">
+        <f aca="false">F261*G261</f>
+        <v>590</v>
+      </c>
+      <c r="I261" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K261" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L261" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F262" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G262" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H262" s="12" t="n">
+        <v>380</v>
+      </c>
+      <c r="I262" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K262" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L262" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F263" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G263" s="28" t="n">
+        <v>23</v>
+      </c>
+      <c r="H263" s="12" t="n">
+        <f aca="false">F263*G263</f>
+        <v>115</v>
+      </c>
+      <c r="I263" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J263" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K263" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L263" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F264" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G264" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H264" s="12" t="n">
+        <f aca="false">F264*G264</f>
+        <v>72</v>
+      </c>
+      <c r="I264" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K264" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L264" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D265" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F265" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G265" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H265" s="12" t="n">
+        <f aca="false">F265*G265</f>
+        <v>540</v>
+      </c>
+      <c r="I265" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K265" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L265" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C269" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F269" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G269" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H269" s="12" t="n">
+        <f aca="false">F269*G269</f>
+        <v>1260</v>
+      </c>
+      <c r="I269" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K269" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L269" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C270" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F270" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G270" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H270" s="12" t="n">
+        <f aca="false">F270*G270</f>
+        <v>108</v>
+      </c>
+      <c r="I270" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J270" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K270" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L270" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C271" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D271" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F271" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G271" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H271" s="12" t="n">
+        <f aca="false">F271*G271</f>
+        <v>156</v>
+      </c>
+      <c r="I271" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K271" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L271" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C272" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F272" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G272" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H272" s="12" t="n">
+        <f aca="false">F272*G272</f>
+        <v>210</v>
+      </c>
+      <c r="I272" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K272" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L272" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C273" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D273" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F273" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H273" s="12" t="n">
+        <f aca="false">F273*G273</f>
+        <v>26</v>
+      </c>
+      <c r="I273" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K273" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L273" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C274" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F274" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G274" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H274" s="12" t="n">
+        <f aca="false">F274*G274</f>
+        <v>18</v>
+      </c>
+      <c r="I274" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K274" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L274" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C275" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D275" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E275" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F275" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="G275" s="34" t="n">
+        <v>14</v>
+      </c>
+      <c r="H275" s="17" t="n">
+        <f aca="false">F275*G275</f>
+        <v>1680</v>
+      </c>
+      <c r="I275" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K275" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L275" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C276" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D276" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F276" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G276" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H276" s="12" t="n">
+        <f aca="false">F276*G276</f>
+        <v>130</v>
+      </c>
+      <c r="I276" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K276" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L276" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C277" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D277" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E277" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F277" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G277" s="37" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H277" s="17" t="n">
+        <f aca="false">F277*G277</f>
+        <v>546</v>
+      </c>
+      <c r="I277" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K277" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L277" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C278" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F278" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G278" s="2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H278" s="12" t="n">
+        <f aca="false">F278*G278</f>
+        <v>228</v>
+      </c>
+      <c r="I278" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J278" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K278" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L278" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C279" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F279" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G279" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H279" s="12" t="n">
+        <f aca="false">F279*G279</f>
+        <v>1260</v>
+      </c>
+      <c r="I279" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J279" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K279" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L279" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C280" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F280" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G280" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H280" s="12" t="n">
+        <f aca="false">F280*G280</f>
+        <v>108</v>
+      </c>
+      <c r="I280" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J280" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K280" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L280" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C281" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D281" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F281" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G281" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H281" s="12" t="n">
+        <f aca="false">F281*G281</f>
+        <v>156</v>
+      </c>
+      <c r="I281" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K281" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L281" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F282" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G282" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H282" s="12" t="n">
+        <f aca="false">F282*G282</f>
+        <v>6300</v>
+      </c>
+      <c r="I282" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K282" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L282" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D283" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F283" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G283" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H283" s="12" t="n">
+        <f aca="false">F283*G283</f>
+        <v>780</v>
+      </c>
+      <c r="I283" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K283" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L283" s="15" t="n">
+        <v>17854079333</v>
       </c>
     </row>
   </sheetData>
@@ -10447,25 +12837,25 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B190:L211 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68897637795276"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5826771653543"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4803149606299"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1456692913386"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1889763779528"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.85433070866142"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9370078740157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0433070866142"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.4566929133858"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5196850393701"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6023622047244"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9173228346457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.751968503937"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="9.68897637795276"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2913385826772"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.3976377952756"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10478,7 +12868,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10569,7 +12959,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="32"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -11021,21 +13411,21 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B190:L211 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.68897637795276"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0629921259843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2716535433071"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0433070866142"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.4566929133858"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5196850393701"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6653543307087"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8740157480315"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3976377952756"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11120,7 +13510,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -11132,7 +13522,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -11144,7 +13534,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -11156,7 +13546,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -11228,10 +13618,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -11255,7 +13645,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -11288,10 +13678,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -11312,7 +13702,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -11324,7 +13714,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -11387,7 +13777,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -11399,7 +13789,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -11408,10 +13798,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -11435,7 +13825,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -11444,10 +13834,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -11456,10 +13846,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -11468,10 +13858,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="190">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -1941,6 +1941,7 @@
         <sz val="12"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">袋</t>
     </r>
@@ -2000,6 +2001,15 @@
   </si>
   <si>
     <t xml:space="preserve">巨野宇康大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野县信诚大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野县麒麟镇康达药店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野良益大药房</t>
   </si>
   <si>
     <r>
@@ -2638,7 +2648,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2748,11 +2758,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
@@ -2838,7 +2843,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2967,31 +2972,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3081,11 +3066,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6653543307087"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.8543307086614"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6889763779528"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0196850393701"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.7913385826772"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8740157480315"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3218,26 +3201,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L283"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B302" activeCellId="0" sqref="B302"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D282" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K320" activeCellId="0" sqref="K320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29133858267717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3976377952756"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2913385826772"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="28.1259842519685"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1889763779528"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="9.68897637795276"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2913385826772"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3740157480315"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="11.6653543307087"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="25.3110236220472"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.251968503937"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="36.251968503937"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5629921259843"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.3976377952756"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2913385826772"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1889763779528"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.4370078740157"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="14.8976377952756"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="32.6023622047244"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10545,6 +10528,11 @@
         <v>18678537472</v>
       </c>
     </row>
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D212" s="0"/>
+      <c r="K212" s="0"/>
+      <c r="L212" s="0"/>
+    </row>
     <row r="213" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
         <v>36</v>
@@ -10797,6 +10785,11 @@
         <v>18865085002</v>
       </c>
     </row>
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D220" s="0"/>
+      <c r="K220" s="0"/>
+      <c r="L220" s="0"/>
+    </row>
     <row r="221" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
         <v>36</v>
@@ -11056,16 +11049,16 @@
       <c r="C228" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D228" s="32" t="s">
+      <c r="D228" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E228" s="33" t="s">
+      <c r="E228" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F228" s="15" t="n">
         <v>120</v>
       </c>
-      <c r="G228" s="34" t="n">
+      <c r="G228" s="32" t="n">
         <v>14</v>
       </c>
       <c r="H228" s="17" t="n">
@@ -11085,6 +11078,11 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D229" s="0"/>
+      <c r="K229" s="0"/>
+      <c r="L229" s="0"/>
+    </row>
     <row r="230" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
         <v>36</v>
@@ -11121,6 +11119,11 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D231" s="0"/>
+      <c r="K231" s="0"/>
+      <c r="L231" s="0"/>
+    </row>
     <row r="232" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
         <v>36</v>
@@ -11301,6 +11304,11 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D237" s="0"/>
+      <c r="K237" s="0"/>
+      <c r="L237" s="0"/>
+    </row>
     <row r="238" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
         <v>36</v>
@@ -11481,6 +11489,11 @@
         <v>18678537472</v>
       </c>
     </row>
+    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D243" s="0"/>
+      <c r="K243" s="0"/>
+      <c r="L243" s="0"/>
+    </row>
     <row r="244" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
         <v>36</v>
@@ -12272,11 +12285,26 @@
         <v>18678537472</v>
       </c>
     </row>
+    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D266" s="0"/>
+      <c r="K266" s="0"/>
+      <c r="L266" s="0"/>
+    </row>
+    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D267" s="0"/>
+      <c r="K267" s="0"/>
+      <c r="L267" s="0"/>
+    </row>
+    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D268" s="0"/>
+      <c r="K268" s="0"/>
+      <c r="L268" s="0"/>
+    </row>
     <row r="269" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="35" t="s">
+      <c r="B269" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C269" s="36" t="s">
+      <c r="C269" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D269" s="9" t="s">
@@ -12309,10 +12337,10 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="35" t="s">
+      <c r="B270" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C270" s="36" t="s">
+      <c r="C270" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D270" s="9" t="s">
@@ -12345,10 +12373,10 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="35" t="s">
+      <c r="B271" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C271" s="36" t="s">
+      <c r="C271" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D271" s="26" t="s">
@@ -12381,10 +12409,10 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="35" t="s">
+      <c r="B272" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C272" s="36" t="s">
+      <c r="C272" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D272" s="9" t="s">
@@ -12417,10 +12445,10 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="35" t="s">
+      <c r="B273" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C273" s="36" t="s">
+      <c r="C273" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D273" s="26" t="s">
@@ -12453,10 +12481,10 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="35" t="s">
+      <c r="B274" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C274" s="36" t="s">
+      <c r="C274" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D274" s="9" t="s">
@@ -12489,22 +12517,22 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="35" t="s">
+      <c r="B275" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D275" s="32" t="s">
+      <c r="D275" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E275" s="33" t="s">
+      <c r="E275" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F275" s="15" t="n">
         <v>120</v>
       </c>
-      <c r="G275" s="34" t="n">
+      <c r="G275" s="32" t="n">
         <v>14</v>
       </c>
       <c r="H275" s="17" t="n">
@@ -12525,10 +12553,10 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="35" t="s">
+      <c r="B276" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D276" s="26" t="s">
@@ -12561,22 +12589,22 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="35" t="s">
+      <c r="B277" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C277" s="36" t="s">
+      <c r="C277" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D277" s="32" t="s">
+      <c r="D277" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E277" s="33" t="s">
+      <c r="E277" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F277" s="15" t="n">
         <v>60</v>
       </c>
-      <c r="G277" s="37" t="n">
+      <c r="G277" s="2" t="n">
         <v>9.1</v>
       </c>
       <c r="H277" s="17" t="n">
@@ -12597,10 +12625,10 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C278" s="36" t="s">
+      <c r="C278" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D278" s="9" t="s">
@@ -12633,10 +12661,10 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="35" t="s">
+      <c r="B279" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C279" s="36" t="s">
+      <c r="C279" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D279" s="9" t="s">
@@ -12669,10 +12697,10 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="35" t="s">
+      <c r="B280" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C280" s="36" t="s">
+      <c r="C280" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D280" s="9" t="s">
@@ -12705,10 +12733,10 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="35" t="s">
+      <c r="B281" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C281" s="36" t="s">
+      <c r="C281" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D281" s="26" t="s">
@@ -12741,7 +12769,7 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="35" t="s">
+      <c r="B282" s="14" t="s">
         <v>160</v>
       </c>
       <c r="C282" s="10" t="s">
@@ -12777,7 +12805,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="35" t="s">
+      <c r="B283" s="14" t="s">
         <v>160</v>
       </c>
       <c r="C283" s="10" t="s">
@@ -12809,6 +12837,1116 @@
         <v>49</v>
       </c>
       <c r="L283" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D284" s="0"/>
+      <c r="K284" s="0"/>
+      <c r="L284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F285" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G285" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H285" s="12" t="n">
+        <f aca="false">F285*G285</f>
+        <v>630</v>
+      </c>
+      <c r="I285" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K285" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L285" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D286" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F286" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G286" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H286" s="12" t="n">
+        <f aca="false">F286*G286</f>
+        <v>78</v>
+      </c>
+      <c r="I286" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K286" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L286" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C287" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F287" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G287" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H287" s="12" t="n">
+        <f aca="false">F287*G287</f>
+        <v>54</v>
+      </c>
+      <c r="I287" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K287" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L287" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C288" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D288" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F288" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G288" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H288" s="12" t="n">
+        <f aca="false">F288*G288</f>
+        <v>546</v>
+      </c>
+      <c r="I288" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K288" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L288" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C289" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F289" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G289" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H289" s="12" t="n">
+        <f aca="false">F289*G289</f>
+        <v>360</v>
+      </c>
+      <c r="I289" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K289" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L289" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D290" s="0"/>
+      <c r="K290" s="0"/>
+      <c r="L290" s="0"/>
+    </row>
+    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D291" s="0"/>
+      <c r="K291" s="0"/>
+      <c r="L291" s="0"/>
+    </row>
+    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D292" s="0"/>
+      <c r="K292" s="0"/>
+      <c r="L292" s="0"/>
+    </row>
+    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D293" s="0"/>
+      <c r="K293" s="0"/>
+      <c r="L293" s="0"/>
+    </row>
+    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D294" s="0"/>
+      <c r="K294" s="0"/>
+      <c r="L294" s="0"/>
+    </row>
+    <row r="295" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C295" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D295" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F295" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G295" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H295" s="12" t="n">
+        <f aca="false">F295*G295</f>
+        <v>130</v>
+      </c>
+      <c r="I295" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K295" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L295" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C296" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D296" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F296" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="G296" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H296" s="17" t="n">
+        <f aca="false">F296*G296</f>
+        <v>1680</v>
+      </c>
+      <c r="I296" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K296" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L296" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C297" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F297" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G297" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H297" s="12" t="n">
+        <f aca="false">F297*G297</f>
+        <v>1260</v>
+      </c>
+      <c r="I297" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K297" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L297" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C298" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D298" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F298" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G298" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H298" s="12" t="n">
+        <f aca="false">F298*G298</f>
+        <v>156</v>
+      </c>
+      <c r="I298" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J298" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K298" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L298" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C299" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F299" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G299" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H299" s="12" t="n">
+        <f aca="false">F299*G299</f>
+        <v>108</v>
+      </c>
+      <c r="I299" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K299" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L299" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F300" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G300" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H300" s="12" t="n">
+        <f aca="false">F300*G300</f>
+        <v>210</v>
+      </c>
+      <c r="I300" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K300" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L300" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C301" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D301" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F301" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H301" s="12" t="n">
+        <f aca="false">F301*G301</f>
+        <v>26</v>
+      </c>
+      <c r="I301" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K301" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L301" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C302" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F302" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G302" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H302" s="12" t="n">
+        <f aca="false">F302*G302</f>
+        <v>18</v>
+      </c>
+      <c r="I302" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K302" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L302" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E303" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F303" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G303" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H303" s="12" t="n">
+        <f aca="false">F303*G303</f>
+        <v>750</v>
+      </c>
+      <c r="I303" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K303" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L303" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D304" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F304" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G304" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H304" s="12" t="n">
+        <f aca="false">F304*G304</f>
+        <v>780</v>
+      </c>
+      <c r="I304" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K304" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L304" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D305" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F305" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G305" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H305" s="12" t="n">
+        <f aca="false">F305*G305</f>
+        <v>78</v>
+      </c>
+      <c r="I305" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K305" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L305" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D306" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F306" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G306" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H306" s="12" t="n">
+        <f aca="false">F306*G306</f>
+        <v>156</v>
+      </c>
+      <c r="I306" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K306" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L306" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F307" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G307" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H307" s="12" t="n">
+        <f aca="false">F307*G307</f>
+        <v>750</v>
+      </c>
+      <c r="I307" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K307" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L307" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C308" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F308" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G308" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H308" s="12" t="n">
+        <f aca="false">F308*G308</f>
+        <v>750</v>
+      </c>
+      <c r="I308" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K308" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L308" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C309" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F309" s="2" t="n">
+        <v>720</v>
+      </c>
+      <c r="G309" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H309" s="12" t="n">
+        <f aca="false">F309*G309</f>
+        <v>7560</v>
+      </c>
+      <c r="I309" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K309" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L309" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C310" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D310" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F310" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G310" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H310" s="12" t="n">
+        <f aca="false">F310*G310</f>
+        <v>1560</v>
+      </c>
+      <c r="I310" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K310" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L310" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C311" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F311" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G311" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H311" s="12" t="n">
+        <f aca="false">F311*G311</f>
+        <v>1080</v>
+      </c>
+      <c r="I311" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K311" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L311" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F312" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="G312" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H312" s="12" t="n">
+        <f aca="false">F312*G312</f>
+        <v>1575</v>
+      </c>
+      <c r="I312" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K312" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L312" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D313" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E313" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F313" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="G313" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H313" s="12" t="n">
+        <f aca="false">F313*G313</f>
+        <v>390</v>
+      </c>
+      <c r="I313" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K313" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L313" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D314" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E314" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F314" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="G314" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H314" s="12" t="n">
+        <f aca="false">F314*G314</f>
+        <v>585</v>
+      </c>
+      <c r="I314" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K314" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L314" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F315" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G315" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H315" s="12" t="n">
+        <f aca="false">F315*G315</f>
+        <v>2250</v>
+      </c>
+      <c r="I315" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K315" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L315" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F316" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G316" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H316" s="12" t="n">
+        <f aca="false">F316*G316</f>
+        <v>135</v>
+      </c>
+      <c r="I316" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K316" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L316" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D317" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E317" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F317" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G317" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="H317" s="12" t="n">
+        <f aca="false">F317*G317</f>
+        <v>300</v>
+      </c>
+      <c r="I317" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K317" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L317" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F319" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G319" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H319" s="12" t="n">
+        <f aca="false">F319*G319</f>
+        <v>420</v>
+      </c>
+      <c r="I319" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J319" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K319" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L319" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B320" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F320" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G320" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H320" s="12" t="n">
+        <f aca="false">F320*G320</f>
+        <v>72</v>
+      </c>
+      <c r="I320" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K320" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L320" s="15" t="n">
         <v>17854079333</v>
       </c>
     </row>
@@ -12842,20 +13980,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5196850393701"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6023622047244"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9173228346457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.751968503937"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="9.68897637795276"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2913385826772"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.3976377952756"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4370078740157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3110236220472"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.5433070866142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4803149606299"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.0629921259843"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.3976377952756"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2913385826772"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.3976377952756"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12868,7 +14005,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12959,7 +14096,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="38"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13416,16 +14553,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5196850393701"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6653543307087"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8740157480315"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3976377952756"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4370078740157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9370078740158"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1456692913386"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3976377952756"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -13510,7 +14646,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -13522,7 +14658,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -13534,7 +14670,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -13546,7 +14682,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -13618,10 +14754,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -13645,7 +14781,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -13678,10 +14814,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -13702,7 +14838,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -13714,7 +14850,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -13777,7 +14913,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -13789,7 +14925,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -13798,10 +14934,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -13825,7 +14961,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -13834,10 +14970,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -13846,10 +14982,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -13858,10 +14994,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="190">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -3066,9 +3066,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0196850393701"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.7913385826772"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8740157480315"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5196850393701"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.0433070866142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.6889763779528"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3201,26 +3203,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:L324"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D282" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K320" activeCellId="0" sqref="K320"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B286" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G324" activeCellId="0" sqref="G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.251968503937"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="36.251968503937"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5629921259843"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.3976377952756"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2913385826772"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1889763779528"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.4370078740157"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="14.8976377952756"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="32.6023622047244"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1889763779528"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.6653543307087"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="39.4803149606299"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.3110236220472"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.4370078740157"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.2716535433071"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1023622047244"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="16.251968503937"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="35.5196850393701"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13878,6 +13880,11 @@
         <v>18865085002</v>
       </c>
     </row>
+    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D318" s="0"/>
+      <c r="K318" s="0"/>
+      <c r="L318" s="0"/>
+    </row>
     <row r="319" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="14" t="s">
         <v>160</v>
@@ -13947,6 +13954,78 @@
         <v>49</v>
       </c>
       <c r="L320" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D323" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E323" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F323" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G323" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H323" s="12" t="n">
+        <f aca="false">F323*G323</f>
+        <v>780</v>
+      </c>
+      <c r="I323" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J323" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K323" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L323" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D324" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F324" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="G324" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H324" s="12" t="n">
+        <f aca="false">F324*G324</f>
+        <v>1680</v>
+      </c>
+      <c r="I324" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J324" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K324" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L324" s="15" t="n">
         <v>17854079333</v>
       </c>
     </row>
@@ -13980,14 +14059,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4370078740157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3110236220472"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.5433070866142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4803149606299"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.0629921259843"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.3976377952756"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2913385826772"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.3976377952756"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5826771653543"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0826771653543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8110236220472"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0826771653543"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.251968503937"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.4370078740157"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.2716535433071"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3740157480315"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14553,10 +14633,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4370078740157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9370078740158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1456692913386"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3976377952756"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5826771653543"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5826771653543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7913385826772"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3740157480315"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="191">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2010,6 +2010,9 @@
   </si>
   <si>
     <t xml:space="preserve">巨野良益大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野瑞嘉大药房</t>
   </si>
   <si>
     <r>
@@ -3066,11 +3069,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5196850393701"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.0433070866142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.6889763779528"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2283464566929"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.8110236220472"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3203,26 +3206,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L324"/>
+  <dimension ref="A1:L329"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B286" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G324" activeCellId="0" sqref="G324"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B291" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E330" activeCellId="0" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1889763779528"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.6653543307087"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="39.4803149606299"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.3110236220472"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.4370078740157"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.2716535433071"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1023622047244"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="16.251968503937"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="35.5196850393701"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.751968503937"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.7086614173228"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="43.0196850393701"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.3740157480315"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.5826771653543"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4566929133858"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.2283464566929"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7716535433071"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="17.6023622047244"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="38.6456692913386"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13957,6 +13960,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D321" s="0"/>
+      <c r="K321" s="0"/>
+      <c r="L321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D322" s="0"/>
+      <c r="K322" s="0"/>
+      <c r="L322" s="0"/>
+    </row>
     <row r="323" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="14" t="s">
         <v>160</v>
@@ -14026,6 +14039,114 @@
         <v>49</v>
       </c>
       <c r="L324" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E327" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F327" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G327" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H327" s="12" t="n">
+        <f aca="false">F327*G327</f>
+        <v>420</v>
+      </c>
+      <c r="I327" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J327" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K327" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L327" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D328" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F328" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G328" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H328" s="12" t="n">
+        <f aca="false">F328*G328</f>
+        <v>52</v>
+      </c>
+      <c r="I328" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K328" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L328" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F329" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G329" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H329" s="12" t="n">
+        <f aca="false">F329*G329</f>
+        <v>360</v>
+      </c>
+      <c r="I329" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J329" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K329" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L329" s="15" t="n">
         <v>17854079333</v>
       </c>
     </row>
@@ -14059,20 +14180,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5826771653543"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0826771653543"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8110236220472"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0826771653543"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.251968503937"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.4370078740157"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.2716535433071"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3740157480315"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0629921259843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.5433070866142"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.5826771653543"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4566929133858"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.5629921259843"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14085,7 +14206,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -14633,16 +14754,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5826771653543"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5826771653543"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7913385826772"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3740157480315"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.5433070866142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8543307086614"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5629921259843"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14727,7 +14848,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -14739,7 +14860,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -14751,7 +14872,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -14763,7 +14884,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -14835,10 +14956,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -14862,7 +14983,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -14895,10 +15016,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -14919,7 +15040,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -14931,7 +15052,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -14994,7 +15115,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -15006,7 +15127,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -15015,10 +15136,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -15042,7 +15163,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -15051,10 +15172,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -15063,10 +15184,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -15075,10 +15196,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="191">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -3069,11 +3069,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2283464566929"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.8110236220472"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.8110236220472"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1456692913386"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="90.2086614173228"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.1456692913386"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3206,26 +3206,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L329"/>
+  <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B291" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E330" activeCellId="0" sqref="E330"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A303" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A332" activeCellId="0" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.751968503937"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.7086614173228"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="43.0196850393701"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.3740157480315"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.5826771653543"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4566929133858"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.2283464566929"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7716535433071"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="17.6023622047244"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="38.6456692913386"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3110236220472"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.2716535433071"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="46.8740157480315"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.8543307086614"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.8543307086614"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.5629921259843"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.751968503937"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="19.1653543307087"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="42.0826771653543"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14042,6 +14042,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D325" s="0"/>
+      <c r="K325" s="0"/>
+      <c r="L325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D326" s="0"/>
+      <c r="K326" s="0"/>
+      <c r="L326" s="0"/>
+    </row>
     <row r="327" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="14" t="s">
         <v>160</v>
@@ -14147,6 +14157,78 @@
         <v>49</v>
       </c>
       <c r="L329" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F332" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G332" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H332" s="12" t="n">
+        <f aca="false">F332*G332</f>
+        <v>420</v>
+      </c>
+      <c r="I332" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K332" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L332" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F333" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G333" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H333" s="12" t="n">
+        <f aca="false">F333*G333</f>
+        <v>72</v>
+      </c>
+      <c r="I333" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J333" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K333" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L333" s="15" t="n">
         <v>17854079333</v>
       </c>
     </row>
@@ -14180,15 +14262,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0629921259843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.5433070866142"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.5826771653543"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4566929133858"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.5629921259843"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1889763779528"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.251968503937"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.7086614173228"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.1259842519685"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0433070866142"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.8543307086614"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9566929133858"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14754,11 +14836,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.5433070866142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8543307086614"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5629921259843"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1889763779528"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8110236220472"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.2283464566929"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9566929133858"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="193">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2013,6 +2013,12 @@
   </si>
   <si>
     <t xml:space="preserve">巨野瑞嘉大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">菏泽五味子大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成武程堂卫生室</t>
   </si>
   <si>
     <r>
@@ -2846,7 +2852,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2979,6 +2985,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3069,11 +3079,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1456692913386"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="90.2086614173228"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.1456692913386"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2716535433071"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.3346456692913"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.7913385826772"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3206,26 +3216,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L333"/>
+  <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A303" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A332" activeCellId="0" sqref="A332"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B329" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B370" activeCellId="0" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3110236220472"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.2716535433071"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="46.8740157480315"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.8543307086614"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.8543307086614"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.5629921259843"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.751968503937"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="19.1653543307087"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="42.0826771653543"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0826771653543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.4566929133858"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="51.1456692913386"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.751968503937"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="17.1889763779528"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4566929133858"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.3110236220472"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8346456692913"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="20.9370078740157"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="45.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14160,6 +14170,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D330" s="0"/>
+      <c r="K330" s="0"/>
+      <c r="L330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D331" s="0"/>
+      <c r="K331" s="0"/>
+      <c r="L331" s="0"/>
+    </row>
     <row r="332" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="14" t="s">
         <v>160</v>
@@ -14230,6 +14250,654 @@
       </c>
       <c r="L333" s="15" t="n">
         <v>17854079333</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E336" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F336" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G336" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H336" s="12" t="n">
+        <f aca="false">F336*G336</f>
+        <v>420</v>
+      </c>
+      <c r="I336" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J336" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K336" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L336" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D337" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F337" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G337" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H337" s="12" t="n">
+        <f aca="false">F337*G337</f>
+        <v>52</v>
+      </c>
+      <c r="I337" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J337" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K337" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L337" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C338" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E338" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F338" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G338" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H338" s="12" t="n">
+        <f aca="false">F338*G338</f>
+        <v>360</v>
+      </c>
+      <c r="I338" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K338" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L338" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D339" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F339" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="G339" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H339" s="12" t="n">
+        <f aca="false">F339*G339</f>
+        <v>1800</v>
+      </c>
+      <c r="I339" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J339" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K339" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L339" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C340" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F340" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G340" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="H340" s="12" t="n">
+        <f aca="false">F340*G340</f>
+        <v>1000</v>
+      </c>
+      <c r="I340" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J340" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K340" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L340" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C341" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F341" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G341" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H341" s="12" t="n">
+        <f aca="false">F341*G341</f>
+        <v>300</v>
+      </c>
+      <c r="I341" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J341" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K341" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L341" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C342" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F342" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G342" s="33" t="n">
+        <v>17</v>
+      </c>
+      <c r="H342" s="12" t="n">
+        <f aca="false">F342*G342</f>
+        <v>850</v>
+      </c>
+      <c r="I342" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K342" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L342" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C343" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F343" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G343" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H343" s="12" t="n">
+        <f aca="false">F343*G343</f>
+        <v>420</v>
+      </c>
+      <c r="I343" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K343" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L343" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C344" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E344" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F344" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G344" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H344" s="12" t="n">
+        <f aca="false">F344*G344</f>
+        <v>72</v>
+      </c>
+      <c r="I344" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J344" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K344" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L344" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C345" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D345" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F345" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G345" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H345" s="12" t="n">
+        <f aca="false">F345*G345</f>
+        <v>130</v>
+      </c>
+      <c r="I345" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J345" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K345" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L345" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C346" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E346" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F346" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G346" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H346" s="12" t="n">
+        <f aca="false">F346*G346</f>
+        <v>1260</v>
+      </c>
+      <c r="I346" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J346" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K346" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L346" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C347" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E347" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F347" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G347" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H347" s="12" t="n">
+        <f aca="false">F347*G347</f>
+        <v>108</v>
+      </c>
+      <c r="I347" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J347" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K347" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L347" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D348" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E348" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F348" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G348" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H348" s="12" t="n">
+        <f aca="false">F348*G348</f>
+        <v>156</v>
+      </c>
+      <c r="I348" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J348" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K348" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L348" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C349" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E349" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F349" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G349" s="33" t="n">
+        <v>21</v>
+      </c>
+      <c r="H349" s="12" t="n">
+        <f aca="false">F349*G349</f>
+        <v>2100</v>
+      </c>
+      <c r="I349" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J349" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K349" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L349" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C350" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D350" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E350" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F350" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G350" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H350" s="12" t="n">
+        <f aca="false">F350*G350</f>
+        <v>700</v>
+      </c>
+      <c r="I350" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J350" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K350" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L350" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C351" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E351" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F351" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G351" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H351" s="12" t="n">
+        <f aca="false">F351*G351</f>
+        <v>430</v>
+      </c>
+      <c r="I351" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J351" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K351" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L351" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F352" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G352" s="28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H352" s="12" t="n">
+        <f aca="false">F352*G352</f>
+        <v>1060</v>
+      </c>
+      <c r="I352" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K352" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L352" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E353" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F353" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G353" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H353" s="12" t="n">
+        <f aca="false">F353*G353</f>
+        <v>350</v>
+      </c>
+      <c r="I353" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K353" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L353" s="15" t="n">
+        <v>13290196757</v>
       </c>
     </row>
   </sheetData>
@@ -14262,20 +14930,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1889763779528"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.251968503937"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.7086614173228"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.1259842519685"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0433070866142"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.8543307086614"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9566929133858"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.751968503937"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5433070866142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.3346456692913"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.4566929133858"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.751968503937"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="17.1889763779528"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4566929133858"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.5629921259843"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14288,7 +14956,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -14379,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="33"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -14836,16 +15504,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1889763779528"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8110236220472"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.2283464566929"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9566929133858"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.751968503937"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.0196850393701"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5629921259843"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14930,7 +15598,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -14942,7 +15610,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -14954,7 +15622,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -14966,7 +15634,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -15038,10 +15706,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -15065,7 +15733,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -15098,10 +15766,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -15122,7 +15790,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -15134,7 +15802,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -15197,7 +15865,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -15209,7 +15877,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -15218,10 +15886,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -15245,7 +15913,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -15254,10 +15922,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -15266,10 +15934,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -15278,10 +15946,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="196">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2019,6 +2019,15 @@
   </si>
   <si>
     <t xml:space="preserve">成武程堂卫生室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">菏泽单县华佗国药大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野开发区吴堂卫生室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成武程堤口卫生室</t>
   </si>
   <si>
     <r>
@@ -3079,11 +3088,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2716535433071"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.3346456692913"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.7913385826772"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8110236220472"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.188976377953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8543307086614"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3216,26 +3225,24 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L353"/>
+  <dimension ref="A1:L363"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B329" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B370" activeCellId="0" sqref="B370"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A329" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B358" activeCellId="0" sqref="B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8110236220472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0826771653543"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.4566929133858"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="51.1456692913386"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.751968503937"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="17.1889763779528"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4566929133858"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.3110236220472"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8346456692913"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="20.9370078740157"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="45.8346456692913"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0629921259843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.2716535433071"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="55.7283464566929"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.9566929133858"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.751968503937"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.2716535433071"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.3740157480315"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.1259842519685"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="22.7086614173228"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="49.8976377952756"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14252,6 +14259,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D334" s="0"/>
+      <c r="K334" s="0"/>
+      <c r="L334" s="0"/>
+    </row>
+    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D335" s="0"/>
+      <c r="K335" s="0"/>
+      <c r="L335" s="0"/>
+    </row>
     <row r="336" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="14" t="s">
         <v>160</v>
@@ -14897,6 +14914,294 @@
         <v>69</v>
       </c>
       <c r="L353" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E356" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F356" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="G356" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="H356" s="12" t="n">
+        <f aca="false">F356*G356</f>
+        <v>2520</v>
+      </c>
+      <c r="I356" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J356" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K356" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L356" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D357" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F357" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="G357" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H357" s="12" t="n">
+        <f aca="false">F357*G357</f>
+        <v>980</v>
+      </c>
+      <c r="I357" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J357" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K357" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L357" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D358" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E358" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F358" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G358" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H358" s="12" t="n">
+        <f aca="false">F358*G358</f>
+        <v>540</v>
+      </c>
+      <c r="I358" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J358" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K358" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L358" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D359" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E359" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F359" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G359" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H359" s="12" t="n">
+        <f aca="false">F359*G359</f>
+        <v>260</v>
+      </c>
+      <c r="I359" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J359" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K359" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L359" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E360" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F360" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G360" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H360" s="12" t="n">
+        <f aca="false">F360*G360</f>
+        <v>750</v>
+      </c>
+      <c r="I360" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J360" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K360" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L360" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C361" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E361" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F361" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G361" s="28" t="n">
+        <v>23</v>
+      </c>
+      <c r="H361" s="12" t="n">
+        <f aca="false">F361*G361</f>
+        <v>230</v>
+      </c>
+      <c r="I361" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J361" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K361" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L361" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C362" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F362" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G362" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H362" s="12" t="n">
+        <f aca="false">F362*G362</f>
+        <v>750</v>
+      </c>
+      <c r="I362" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J362" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K362" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L362" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C363" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E363" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F363" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G363" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H363" s="12" t="n">
+        <f aca="false">F363*G363</f>
+        <v>750</v>
+      </c>
+      <c r="I363" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J363" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K363" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L363" s="15" t="n">
         <v>13290196757</v>
       </c>
     </row>
@@ -14930,20 +15235,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.751968503937"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5433070866142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.3346456692913"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.4566929133858"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.751968503937"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="17.1889763779528"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4566929133858"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.5629921259843"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3110236220472"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0433070866142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.4803149606299"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.2086614173228"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6653543307087"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.751968503937"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.2716535433071"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.3740157480315"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14956,7 +15261,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -15504,16 +15809,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.751968503937"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.0196850393701"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5629921259843"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3110236220472"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.7086614173228"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.2283464566929"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3740157480315"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15598,7 +15903,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -15610,7 +15915,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -15622,7 +15927,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -15634,7 +15939,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -15706,10 +16011,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -15733,7 +16038,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -15766,10 +16071,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -15790,7 +16095,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -15802,7 +16107,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -15865,7 +16170,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -15877,7 +16182,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -15886,10 +16191,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -15913,7 +16218,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -15922,10 +16227,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -15934,10 +16239,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -15946,10 +16251,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="196">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -3083,16 +3083,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B370:L371 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8110236220472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8110236220472"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.188976377953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8543307086614"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.8346456692913"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="127.397637795276"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.0196850393701"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3225,24 +3225,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L363"/>
+  <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A329" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B358" activeCellId="0" sqref="B358"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B332" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B370" activeCellId="0" sqref="B370:L371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0629921259843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.2716535433071"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="55.7283464566929"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.9566929133858"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.751968503937"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.2716535433071"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.3740157480315"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.1259842519685"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="22.7086614173228"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="49.8976377952756"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5433070866142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.082677165354"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="66.1456692913386"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0433070866142"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="22.0826771653543"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.7283464566929"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="58.751968503937"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.3346456692913"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="26.8740157480315"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="59.2716535433071"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14917,6 +14919,16 @@
         <v>13290196757</v>
       </c>
     </row>
+    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D354" s="0"/>
+      <c r="K354" s="0"/>
+      <c r="L354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D355" s="0"/>
+      <c r="K355" s="0"/>
+      <c r="L355" s="0"/>
+    </row>
     <row r="356" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="14" t="s">
         <v>160</v>
@@ -15203,6 +15215,160 @@
       </c>
       <c r="L363" s="15" t="n">
         <v>13290196757</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D364" s="0"/>
+      <c r="K364" s="0"/>
+      <c r="L364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D365" s="0"/>
+      <c r="K365" s="0"/>
+      <c r="L365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F366" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G366" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H366" s="12" t="n">
+        <f aca="false">F366*G366</f>
+        <v>420</v>
+      </c>
+      <c r="I366" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J366" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K366" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L366" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E367" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F367" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G367" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H367" s="12" t="n">
+        <f aca="false">F367*G367</f>
+        <v>72</v>
+      </c>
+      <c r="I367" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J367" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K367" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L367" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C370" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E370" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F370" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G370" s="28" t="n">
+        <v>23</v>
+      </c>
+      <c r="H370" s="12" t="n">
+        <f aca="false">F370*G370</f>
+        <v>92</v>
+      </c>
+      <c r="I370" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J370" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K370" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L370" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C371" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D371" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F371" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G371" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H371" s="12" t="n">
+        <f aca="false">F371*G371</f>
+        <v>360</v>
+      </c>
+      <c r="I371" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J371" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K371" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L371" s="15" t="n">
+        <v>17854079333</v>
       </c>
     </row>
   </sheetData>
@@ -15230,20 +15396,20 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B370:L371 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3110236220472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0433070866142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.4803149606299"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.2086614173228"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6653543307087"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.751968503937"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.2716535433071"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.3740157480315"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.0629921259843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6653543307087"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88.5433070866142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.751968503937"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.5433070866142"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="22.0826771653543"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.7283464566929"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15804,16 +15970,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B370:L371 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3110236220472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.7086614173228"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.2283464566929"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3740157480315"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.0629921259843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.4803149606299"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.1023622047244"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="196">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -3083,16 +3083,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B370:L371 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B374:L381 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.8346456692913"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="127.397637795276"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.0196850393701"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.3110236220472"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="138.854330708661"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.2283464566929"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3225,26 +3225,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L371"/>
+  <dimension ref="A1:L381"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B332" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B370" activeCellId="0" sqref="B370:L371"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A346" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B374" activeCellId="0" sqref="B374:L381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5433070866142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.082677165354"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="66.1456692913386"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0433070866142"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="22.0826771653543"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.7283464566929"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="58.751968503937"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.3346456692913"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="26.8740157480315"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="59.2716535433071"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0433070866142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.188976377953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="72.0826771653543"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8110236220472"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.0629921259843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.3740157480315"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="63.9566929133858"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.251968503937"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="29.2716535433071"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="64.5826771653543"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13059,17 +13059,17 @@
       <c r="K291" s="0"/>
       <c r="L291" s="0"/>
     </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D292" s="0"/>
       <c r="K292" s="0"/>
       <c r="L292" s="0"/>
     </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D293" s="0"/>
       <c r="K293" s="0"/>
       <c r="L293" s="0"/>
     </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D294" s="0"/>
       <c r="K294" s="0"/>
       <c r="L294" s="0"/>
@@ -13984,7 +13984,7 @@
       <c r="K321" s="0"/>
       <c r="L321" s="0"/>
     </row>
-    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D322" s="0"/>
       <c r="K322" s="0"/>
       <c r="L322" s="0"/>
@@ -15299,6 +15299,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D368" s="0"/>
+      <c r="K368" s="0"/>
+      <c r="L368" s="0"/>
+    </row>
+    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D369" s="0"/>
+      <c r="K369" s="0"/>
+      <c r="L369" s="0"/>
+    </row>
     <row r="370" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="14" t="s">
         <v>160</v>
@@ -15368,6 +15378,294 @@
         <v>49</v>
       </c>
       <c r="L371" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C374" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F374" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G374" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H374" s="12" t="n">
+        <f aca="false">F374*G374</f>
+        <v>360</v>
+      </c>
+      <c r="I374" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J374" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K374" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L374" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D375" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F375" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G375" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H375" s="12" t="n">
+        <f aca="false">F375*G375</f>
+        <v>420</v>
+      </c>
+      <c r="I375" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J375" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K375" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L375" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F376" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="G376" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H376" s="12" t="n">
+        <f aca="false">F376*G376</f>
+        <v>432</v>
+      </c>
+      <c r="I376" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J376" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K376" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L376" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C377" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F377" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G377" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H377" s="12" t="n">
+        <f aca="false">F377*G377</f>
+        <v>630</v>
+      </c>
+      <c r="I377" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J377" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K377" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L377" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C378" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F378" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G378" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H378" s="12" t="n">
+        <f aca="false">F378*G378</f>
+        <v>54</v>
+      </c>
+      <c r="I378" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J378" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K378" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L378" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C379" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D379" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F379" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G379" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H379" s="12" t="n">
+        <f aca="false">F379*G379</f>
+        <v>78</v>
+      </c>
+      <c r="I379" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J379" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K379" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L379" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C380" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D380" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F380" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G380" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H380" s="12" t="n">
+        <f aca="false">F380*G380</f>
+        <v>130</v>
+      </c>
+      <c r="I380" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J380" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K380" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L380" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C381" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F381" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G381" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H381" s="12" t="n">
+        <f aca="false">F381*G381</f>
+        <v>236</v>
+      </c>
+      <c r="I381" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J381" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K381" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L381" s="15" t="n">
         <v>17854079333</v>
       </c>
     </row>
@@ -15396,20 +15694,20 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B370:L371 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B374:L381 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.0629921259843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6653543307087"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88.5433070866142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.751968503937"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.5433070866142"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="22.0826771653543"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.7283464566929"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.8346456692913"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.251968503937"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.4566929133858"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.5433070866142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.3976377952756"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.0629921259843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.3740157480315"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.4803149606299"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15970,16 +16268,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B370:L371 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B374:L381 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.0629921259843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.4803149606299"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.1023622047244"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.8346456692913"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.251968503937"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.251968503937"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.8740157480315"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.4803149606299"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="197">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2028,6 +2028,9 @@
   </si>
   <si>
     <t xml:space="preserve">成武程堤口卫生室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">菏泽泙湖大药房连锁有限公司</t>
   </si>
   <si>
     <r>
@@ -3083,16 +3086,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B374:L381 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B384:L385 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.3110236220472"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="138.854330708661"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.2283464566929"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.2086614173228"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="151.456692913386"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.8543307086614"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3225,26 +3228,26 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L381"/>
+  <dimension ref="A1:L385"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A346" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B374" activeCellId="0" sqref="B374:L381"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B355" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B384" activeCellId="0" sqref="B384:L385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0433070866142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.188976377953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="72.0826771653543"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8110236220472"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.0629921259843"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.3740157480315"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="63.9566929133858"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.251968503937"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="29.2716535433071"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="64.5826771653543"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.751968503937"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="133.228346456693"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="78.5433070866142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.2086614173228"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="26.251968503937"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.3346456692913"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="69.7913385826772"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.4803149606299"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="31.8740157480315"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="70.4173228346457"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15381,6 +15384,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D372" s="0"/>
+      <c r="K372" s="0"/>
+      <c r="L372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D373" s="0"/>
+      <c r="K373" s="0"/>
+      <c r="L373" s="0"/>
+    </row>
     <row r="374" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="14" t="s">
         <v>160</v>
@@ -15666,6 +15679,78 @@
         <v>49</v>
       </c>
       <c r="L381" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C384" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D384" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E384" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F384" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="G384" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H384" s="12" t="n">
+        <f aca="false">F384*G384</f>
+        <v>1680</v>
+      </c>
+      <c r="I384" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J384" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K384" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L384" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C385" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E385" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F385" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G385" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H385" s="12" t="n">
+        <f aca="false">F385*G385</f>
+        <v>480</v>
+      </c>
+      <c r="I385" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J385" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K385" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L385" s="15" t="n">
         <v>17854079333</v>
       </c>
     </row>
@@ -15694,25 +15779,25 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B374:L381 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B384:L385 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.251968503937"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.4566929133858"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.5433070866142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.3976377952756"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.0629921259843"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.3740157480315"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.4803149606299"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5433070866142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5433070866142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.208661417323"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.751968503937"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.6653543307087"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="26.251968503937"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.3346456692913"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.4370078740158"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15725,7 +15810,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -16268,21 +16353,21 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B374:L381 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B384:L385 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.251968503937"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.251968503937"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.8740157480315"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.4803149606299"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5433070866142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.5433070866142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.2716535433071"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.4370078740158"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -16367,7 +16452,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -16379,7 +16464,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -16391,7 +16476,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -16403,7 +16488,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -16475,10 +16560,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -16502,7 +16587,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -16535,10 +16620,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -16559,7 +16644,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -16571,7 +16656,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -16634,7 +16719,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -16646,7 +16731,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -16655,10 +16740,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -16682,7 +16767,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -16691,10 +16776,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -16703,10 +16788,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -16715,10 +16800,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="197">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -3086,16 +3086,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B384:L385 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.2086614173228"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="151.456692913386"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.8543307086614"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.8976377952756"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="214.165354330709"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="97.2913385826772"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3228,29 +3228,30 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L385"/>
+  <dimension ref="A1:L420"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B355" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B384" activeCellId="0" sqref="B384:L385"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A402" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B424" activeCellId="0" sqref="B424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.751968503937"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="133.228346456693"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="78.5433070866142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.2086614173228"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="26.251968503937"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.3346456692913"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="69.7913385826772"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.4803149606299"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="31.8740157480315"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="70.4173228346457"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.95669291338583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5433070866142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="31.7716535433071"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1456692913386"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.51968503937008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.29133858267717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.3976377952756"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0196850393701"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="8.43700787401575"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -3266,7 +3267,7 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>19</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>36</v>
@@ -3434,7 +3435,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>36</v>
@@ -3471,7 +3472,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>36</v>
@@ -3508,7 +3509,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -3544,7 +3545,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>36</v>
@@ -3578,7 +3579,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -3614,7 +3615,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>14</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -3690,7 +3691,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -3727,7 +3728,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>6</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>9</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>36</v>
@@ -3840,7 +3841,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>36</v>
@@ -3875,7 +3876,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>36</v>
@@ -3912,7 +3913,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>36</v>
@@ -3949,7 +3950,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
@@ -3986,7 +3987,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
         <v>36</v>
@@ -4023,7 +4024,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -4060,7 +4061,7 @@
         <v>15615505073</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
       <c r="B24" s="2" t="s">
         <v>36</v>
@@ -4095,7 +4096,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -4132,7 +4133,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>15615505073</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="n">
         <v>5</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="n">
         <v>13</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
         <v>36</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
         <v>36</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
         <v>36</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
         <v>36</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
         <v>36</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
         <v>36</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
         <v>36</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
         <v>36</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
         <v>36</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
         <v>36</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
         <v>36</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
         <v>36</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
         <v>36</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
         <v>36</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
         <v>36</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
         <v>36</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
         <v>36</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
         <v>36</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
         <v>36</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
         <v>36</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
         <v>36</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
         <v>36</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>18754095125</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
         <v>36</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>18754095125</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
         <v>36</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>18754095125</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
         <v>36</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>15615505073</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
         <v>36</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>15615505073</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
         <v>36</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
         <v>36</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
         <v>36</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
         <v>36</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
         <v>36</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
         <v>36</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
         <v>36</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
         <v>36</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
         <v>36</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
         <v>36</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="n">
         <v>3</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="n">
         <v>8</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="n">
         <v>11</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
         <v>36</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
         <v>36</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
         <v>36</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
         <v>36</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="n">
         <v>1</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="n">
         <v>2</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="n">
         <v>7</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="n">
         <v>10</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="n">
         <v>12</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="n">
         <v>15</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="n">
         <v>16</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="n">
         <v>20</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="n">
         <v>21</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="n">
         <v>22</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
         <v>36</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
         <v>36</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
         <v>36</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
         <v>36</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
         <v>36</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
         <v>36</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
         <v>36</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
         <v>36</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
         <v>36</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
         <v>36</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="n">
         <v>18</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
         <v>36</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
         <v>36</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
         <v>36</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
         <v>36</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
         <v>36</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
         <v>36</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
         <v>36</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="n">
         <v>17</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
         <v>36</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
         <v>36</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
         <v>36</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
         <v>36</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
         <v>36</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
         <v>36</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
         <v>36</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
         <v>36</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
         <v>36</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
         <v>36</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
         <v>36</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
         <v>36</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
         <v>36</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
         <v>36</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
         <v>36</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
         <v>36</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
         <v>36</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
         <v>36</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
         <v>36</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
         <v>36</v>
       </c>
@@ -8237,7 +8238,7 @@
       <c r="K141" s="19"/>
       <c r="L141" s="15"/>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
         <v>36</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
         <v>36</v>
       </c>
@@ -8282,7 +8283,7 @@
       <c r="K143" s="14"/>
       <c r="L143" s="15"/>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
         <v>36</v>
       </c>
@@ -8297,7 +8298,7 @@
       <c r="K144" s="14"/>
       <c r="L144" s="15"/>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
         <v>36</v>
       </c>
@@ -8312,7 +8313,7 @@
       <c r="K145" s="14"/>
       <c r="L145" s="15"/>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
         <v>36</v>
       </c>
@@ -8342,7 +8343,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
         <v>36</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
         <v>36</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="2" t="s">
         <v>36</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="2" t="s">
         <v>36</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="2" t="s">
         <v>36</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
         <v>36</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="2" t="s">
         <v>36</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
         <v>36</v>
       </c>
@@ -9250,7 +9251,7 @@
       <c r="K173" s="0"/>
       <c r="L173" s="0"/>
     </row>
-    <row r="174" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
         <v>36</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
         <v>36</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="2" t="s">
         <v>36</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>18754095125</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
         <v>36</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="2" t="s">
         <v>36</v>
       </c>
@@ -9754,17 +9755,17 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="0"/>
       <c r="K188" s="0"/>
       <c r="L188" s="0"/>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="0"/>
       <c r="K189" s="0"/>
       <c r="L189" s="0"/>
     </row>
-    <row r="190" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
         <v>36</v>
       </c>
@@ -9872,7 +9873,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
         <v>36</v>
       </c>
@@ -9980,7 +9981,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
         <v>36</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
         <v>36</v>
       </c>
@@ -10088,7 +10089,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
         <v>36</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
         <v>36</v>
       </c>
@@ -10268,7 +10269,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
         <v>36</v>
       </c>
@@ -10340,7 +10341,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
         <v>36</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
         <v>36</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
         <v>36</v>
       </c>
@@ -10555,12 +10556,12 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="0"/>
       <c r="K212" s="0"/>
       <c r="L212" s="0"/>
     </row>
-    <row r="213" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
         <v>36</v>
       </c>
@@ -10740,7 +10741,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
         <v>36</v>
       </c>
@@ -10812,12 +10813,12 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="0"/>
       <c r="K220" s="0"/>
       <c r="L220" s="0"/>
     </row>
-    <row r="221" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
         <v>36</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
         <v>36</v>
       </c>
@@ -11105,12 +11106,12 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D229" s="0"/>
       <c r="K229" s="0"/>
       <c r="L229" s="0"/>
     </row>
-    <row r="230" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
         <v>36</v>
       </c>
@@ -11146,12 +11147,12 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D231" s="0"/>
       <c r="K231" s="0"/>
       <c r="L231" s="0"/>
     </row>
-    <row r="232" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
         <v>36</v>
       </c>
@@ -11187,7 +11188,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="2" t="s">
         <v>36</v>
       </c>
@@ -11331,7 +11332,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D237" s="0"/>
       <c r="K237" s="0"/>
       <c r="L237" s="0"/>
@@ -11372,7 +11373,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
         <v>36</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
         <v>36</v>
       </c>
@@ -11444,7 +11445,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="2" t="s">
         <v>36</v>
       </c>
@@ -11516,12 +11517,12 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="0"/>
       <c r="K243" s="0"/>
       <c r="L243" s="0"/>
     </row>
-    <row r="244" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
         <v>36</v>
       </c>
@@ -11629,7 +11630,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
         <v>36</v>
       </c>
@@ -11737,7 +11738,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
         <v>36</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
         <v>36</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
         <v>36</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
         <v>36</v>
       </c>
@@ -12025,7 +12026,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
         <v>36</v>
       </c>
@@ -12097,7 +12098,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
         <v>36</v>
       </c>
@@ -12169,7 +12170,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
         <v>36</v>
       </c>
@@ -12204,7 +12205,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
         <v>36</v>
       </c>
@@ -12312,22 +12313,22 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D266" s="0"/>
       <c r="K266" s="0"/>
       <c r="L266" s="0"/>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D267" s="0"/>
       <c r="K267" s="0"/>
       <c r="L267" s="0"/>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D268" s="0"/>
       <c r="K268" s="0"/>
       <c r="L268" s="0"/>
     </row>
-    <row r="269" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="14" t="s">
         <v>160</v>
       </c>
@@ -12435,7 +12436,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="14" t="s">
         <v>160</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="14" t="s">
         <v>160</v>
       </c>
@@ -12795,7 +12796,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="14" t="s">
         <v>160</v>
       </c>
@@ -12867,12 +12868,12 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D284" s="0"/>
       <c r="K284" s="0"/>
       <c r="L284" s="0"/>
     </row>
-    <row r="285" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="14" t="s">
         <v>160</v>
       </c>
@@ -13052,27 +13053,27 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D290" s="0"/>
       <c r="K290" s="0"/>
       <c r="L290" s="0"/>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D291" s="0"/>
       <c r="K291" s="0"/>
       <c r="L291" s="0"/>
     </row>
-    <row r="292" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D292" s="0"/>
       <c r="K292" s="0"/>
       <c r="L292" s="0"/>
     </row>
-    <row r="293" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D293" s="0"/>
       <c r="K293" s="0"/>
       <c r="L293" s="0"/>
     </row>
-    <row r="294" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D294" s="0"/>
       <c r="K294" s="0"/>
       <c r="L294" s="0"/>
@@ -13149,7 +13150,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="14" t="s">
         <v>160</v>
       </c>
@@ -13257,7 +13258,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="14" t="s">
         <v>160</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="14" t="s">
         <v>160</v>
       </c>
@@ -13509,7 +13510,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="14" t="s">
         <v>160</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="14" t="s">
         <v>160</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="14" t="s">
         <v>160</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="14" t="s">
         <v>160</v>
       </c>
@@ -13797,7 +13798,7 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="14" t="s">
         <v>160</v>
       </c>
@@ -13905,12 +13906,12 @@
         <v>18865085002</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D318" s="0"/>
       <c r="K318" s="0"/>
       <c r="L318" s="0"/>
     </row>
-    <row r="319" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="14" t="s">
         <v>160</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D321" s="0"/>
       <c r="K321" s="0"/>
       <c r="L321" s="0"/>
@@ -14064,17 +14065,17 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D325" s="0"/>
       <c r="K325" s="0"/>
       <c r="L325" s="0"/>
     </row>
-    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D326" s="0"/>
       <c r="K326" s="0"/>
       <c r="L326" s="0"/>
     </row>
-    <row r="327" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="14" t="s">
         <v>160</v>
       </c>
@@ -14182,17 +14183,17 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D330" s="0"/>
       <c r="K330" s="0"/>
       <c r="L330" s="0"/>
     </row>
-    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D331" s="0"/>
       <c r="K331" s="0"/>
       <c r="L331" s="0"/>
     </row>
-    <row r="332" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="14" t="s">
         <v>160</v>
       </c>
@@ -14264,17 +14265,17 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D334" s="0"/>
       <c r="K334" s="0"/>
       <c r="L334" s="0"/>
     </row>
-    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D335" s="0"/>
       <c r="K335" s="0"/>
       <c r="L335" s="0"/>
     </row>
-    <row r="336" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="14" t="s">
         <v>160</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="14" t="s">
         <v>160</v>
       </c>
@@ -14526,7 +14527,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="14" t="s">
         <v>160</v>
       </c>
@@ -14634,7 +14635,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="14" t="s">
         <v>160</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="14" t="s">
         <v>160</v>
       </c>
@@ -14922,17 +14923,17 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D354" s="0"/>
       <c r="K354" s="0"/>
       <c r="L354" s="0"/>
     </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D355" s="0"/>
       <c r="K355" s="0"/>
       <c r="L355" s="0"/>
     </row>
-    <row r="356" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="14" t="s">
         <v>160</v>
       </c>
@@ -15076,7 +15077,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="14" t="s">
         <v>160</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>18678537472</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="14" t="s">
         <v>160</v>
       </c>
@@ -15148,7 +15149,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="14" t="s">
         <v>160</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="14" t="s">
         <v>160</v>
       </c>
@@ -15220,12 +15221,12 @@
         <v>13290196757</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D364" s="0"/>
       <c r="K364" s="0"/>
       <c r="L364" s="0"/>
     </row>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D365" s="0"/>
       <c r="K365" s="0"/>
       <c r="L365" s="0"/>
@@ -15302,12 +15303,12 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D368" s="0"/>
       <c r="K368" s="0"/>
       <c r="L368" s="0"/>
     </row>
-    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D369" s="0"/>
       <c r="K369" s="0"/>
       <c r="L369" s="0"/>
@@ -15384,12 +15385,12 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D372" s="0"/>
       <c r="K372" s="0"/>
       <c r="L372" s="0"/>
     </row>
-    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D373" s="0"/>
       <c r="K373" s="0"/>
       <c r="L373" s="0"/>
@@ -15430,7 +15431,7 @@
         <v>17854079333</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="14" t="s">
         <v>160</v>
       </c>
@@ -15682,6 +15683,16 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D382" s="0"/>
+      <c r="K382" s="0"/>
+      <c r="L382" s="0"/>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D383" s="0"/>
+      <c r="K383" s="0"/>
+      <c r="L383" s="0"/>
+    </row>
     <row r="384" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="14" t="s">
         <v>160</v>
@@ -15752,6 +15763,972 @@
       </c>
       <c r="L385" s="15" t="n">
         <v>17854079333</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D386" s="0"/>
+      <c r="K386" s="0"/>
+      <c r="L386" s="0"/>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D387" s="0"/>
+      <c r="K387" s="0"/>
+      <c r="L387" s="0"/>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D388" s="0"/>
+      <c r="K388" s="0"/>
+      <c r="L388" s="0"/>
+    </row>
+    <row r="389" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C389" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F389" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G389" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H389" s="12" t="n">
+        <f aca="false">F389*G389</f>
+        <v>1260</v>
+      </c>
+      <c r="I389" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J389" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K389" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L389" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C390" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D390" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F390" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G390" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H390" s="12" t="n">
+        <f aca="false">F390*G390</f>
+        <v>156</v>
+      </c>
+      <c r="I390" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J390" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K390" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L390" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C391" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F391" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G391" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H391" s="12" t="n">
+        <f aca="false">F391*G391</f>
+        <v>108</v>
+      </c>
+      <c r="I391" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J391" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K391" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L391" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C392" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D392" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E392" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F392" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G392" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H392" s="12" t="n">
+        <f aca="false">F392*G392</f>
+        <v>156</v>
+      </c>
+      <c r="I392" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J392" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K392" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L392" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C393" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D393" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E393" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F393" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G393" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H393" s="12" t="n">
+        <f aca="false">F393*G393</f>
+        <v>1260</v>
+      </c>
+      <c r="I393" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J393" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K393" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L393" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C394" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D394" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F394" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G394" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H394" s="12" t="n">
+        <f aca="false">F394*G394</f>
+        <v>108</v>
+      </c>
+      <c r="I394" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J394" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K394" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L394" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E395" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F395" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G395" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H395" s="12" t="n">
+        <f aca="false">F395*G395</f>
+        <v>430</v>
+      </c>
+      <c r="I395" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J395" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K395" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L395" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E396" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F396" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G396" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H396" s="12" t="n">
+        <f aca="false">F396*G396</f>
+        <v>1260</v>
+      </c>
+      <c r="I396" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J396" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K396" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L396" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D397" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E397" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F397" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G397" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H397" s="12" t="n">
+        <f aca="false">F397*G397</f>
+        <v>156</v>
+      </c>
+      <c r="I397" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J397" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K397" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L397" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E398" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F398" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G398" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H398" s="12" t="n">
+        <f aca="false">F398*G398</f>
+        <v>108</v>
+      </c>
+      <c r="I398" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J398" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K398" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L398" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D399" s="0"/>
+      <c r="K399" s="0"/>
+      <c r="L399" s="0"/>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D400" s="0"/>
+      <c r="K400" s="0"/>
+      <c r="L400" s="0"/>
+    </row>
+    <row r="401" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E401" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F401" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G401" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H401" s="12" t="n">
+        <f aca="false">F401*G401</f>
+        <v>750</v>
+      </c>
+      <c r="I401" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J401" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K401" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L401" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D402" s="0"/>
+      <c r="K402" s="0"/>
+      <c r="L402" s="0"/>
+    </row>
+    <row r="403" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C403" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D403" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F403" s="15" t="n">
+        <v>360</v>
+      </c>
+      <c r="G403" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H403" s="12" t="n">
+        <f aca="false">F403*G403</f>
+        <v>3276</v>
+      </c>
+      <c r="I403" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J403" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K403" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L403" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C404" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E404" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F404" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G404" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H404" s="12" t="n">
+        <f aca="false">F404*G404</f>
+        <v>180</v>
+      </c>
+      <c r="I404" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J404" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K404" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L404" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C405" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F405" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G405" s="28" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="H405" s="12" t="n">
+        <f aca="false">F405*G405</f>
+        <v>1760</v>
+      </c>
+      <c r="I405" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K405" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L405" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C406" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D406" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E406" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F406" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="G406" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H406" s="12" t="n">
+        <f aca="false">F406*G406</f>
+        <v>2016</v>
+      </c>
+      <c r="I406" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J406" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K406" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L406" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C410" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D410" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E410" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F410" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G410" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H410" s="12" t="n">
+        <f aca="false">F410*G410</f>
+        <v>156</v>
+      </c>
+      <c r="I410" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K410" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L410" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C411" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E411" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F411" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G411" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H411" s="12" t="n">
+        <f aca="false">F411*G411</f>
+        <v>59</v>
+      </c>
+      <c r="I411" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K411" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L411" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C412" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D412" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F412" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G412" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H412" s="12" t="n">
+        <f aca="false">F412*G412</f>
+        <v>91</v>
+      </c>
+      <c r="I412" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K412" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L412" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C413" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F413" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G413" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H413" s="12" t="n">
+        <f aca="false">F413*G413</f>
+        <v>1260</v>
+      </c>
+      <c r="I413" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K413" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L413" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C414" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D414" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E414" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F414" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H414" s="12" t="n">
+        <f aca="false">F414*G414</f>
+        <v>156</v>
+      </c>
+      <c r="I414" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K414" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L414" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C415" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F415" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G415" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H415" s="12" t="n">
+        <f aca="false">F415*G415</f>
+        <v>108</v>
+      </c>
+      <c r="I415" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K415" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L415" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C416" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E416" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F416" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G416" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H416" s="12" t="n">
+        <f aca="false">F416*G416</f>
+        <v>59</v>
+      </c>
+      <c r="I416" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K416" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L416" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C417" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D417" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F417" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G417" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H417" s="12" t="n">
+        <f aca="false">F417*G417</f>
+        <v>91</v>
+      </c>
+      <c r="I417" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K417" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L417" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C418" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D418" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E418" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F418" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="G418" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H418" s="12" t="n">
+        <f aca="false">F418*G418</f>
+        <v>624</v>
+      </c>
+      <c r="I418" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K418" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L418" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C419" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F419" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G419" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H419" s="12" t="n">
+        <f aca="false">F419*G419</f>
+        <v>1260</v>
+      </c>
+      <c r="I419" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K419" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L419" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C420" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D420" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F420" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G420" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H420" s="12" t="n">
+        <f aca="false">F420*G420</f>
+        <v>108</v>
+      </c>
+      <c r="I420" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K420" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L420" s="15" t="n">
+        <v>18865085002</v>
       </c>
     </row>
   </sheetData>
@@ -15779,20 +16756,20 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="B384:L385 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5433070866142"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5433070866142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.208661417323"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.751968503937"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.6653543307087"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="26.251968503937"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.3346456692913"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.4370078740158"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4566929133858"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="148.543307086614"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.7913385826772"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.0196850393701"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="36.6653543307087"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.0196850393701"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.1259842519685"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16353,16 +17330,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B384:L385 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5433070866142"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.5433070866142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.2716535433071"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.4370078740158"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="125"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="125.937007874016"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.1259842519685"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="198">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2031,6 +2031,9 @@
   </si>
   <si>
     <t xml:space="preserve">菏泽泙湖大药房连锁有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东单县天奇医药有限公司</t>
   </si>
   <si>
     <r>
@@ -3091,11 +3094,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.8976377952756"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="214.165354330709"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="97.2913385826772"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.897637795276"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5866141732283"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="125.937007874016"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3228,27 +3231,25 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L420"/>
+  <dimension ref="A1:L445"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A402" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B424" activeCellId="0" sqref="B424"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B407" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C447" activeCellId="0" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.95669291338583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5433070866142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="31.7716535433071"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1456692913386"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.51968503937008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.29133858267717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.3976377952756"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0196850393701"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8346456692913"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="8.43700787401575"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="15.8346456692913"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.10236220472441"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3346456692913"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="41.0433070866142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0826771653543"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.98031496062992"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3976377952756"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3346456692913"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="10.7283464566929"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="20.3110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16335,6 +16336,21 @@
         <v>18865085002</v>
       </c>
     </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D407" s="0"/>
+      <c r="K407" s="0"/>
+      <c r="L407" s="0"/>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D408" s="0"/>
+      <c r="K408" s="0"/>
+      <c r="L408" s="0"/>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D409" s="0"/>
+      <c r="K409" s="0"/>
+      <c r="L409" s="0"/>
+    </row>
     <row r="410" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="14" t="s">
         <v>160</v>
@@ -16728,6 +16744,568 @@
         <v>42</v>
       </c>
       <c r="L420" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D421" s="0"/>
+      <c r="K421" s="0"/>
+      <c r="L421" s="0"/>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D422" s="0"/>
+      <c r="K422" s="0"/>
+      <c r="L422" s="0"/>
+    </row>
+    <row r="423" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D423" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F423" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G423" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H423" s="12" t="n">
+        <f aca="false">F423*G423</f>
+        <v>430</v>
+      </c>
+      <c r="I423" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J423" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K423" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L423" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D424" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E424" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F424" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G424" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H424" s="12" t="n">
+        <f aca="false">F424*G424</f>
+        <v>130</v>
+      </c>
+      <c r="I424" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J424" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K424" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L424" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F425" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G425" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H425" s="12" t="n">
+        <f aca="false">F425*G425</f>
+        <v>236</v>
+      </c>
+      <c r="I425" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J425" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K425" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L425" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D426" s="0"/>
+      <c r="K426" s="0"/>
+      <c r="L426" s="0"/>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D427" s="0"/>
+      <c r="K427" s="0"/>
+      <c r="L427" s="0"/>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D428" s="0"/>
+      <c r="K428" s="0"/>
+      <c r="L428" s="0"/>
+    </row>
+    <row r="429" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D429" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F429" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G429" s="28" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="H429" s="12" t="n">
+        <f aca="false">F429*G429</f>
+        <v>1760</v>
+      </c>
+      <c r="I429" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K429" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L429" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C430" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E430" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F430" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G430" s="29" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="H430" s="12" t="n">
+        <f aca="false">F430*G430</f>
+        <v>880</v>
+      </c>
+      <c r="I430" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K430" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L430" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C431" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D431" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E431" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F431" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G431" s="33" t="n">
+        <v>21</v>
+      </c>
+      <c r="H431" s="12" t="n">
+        <f aca="false">F431*G431</f>
+        <v>2100</v>
+      </c>
+      <c r="I431" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K431" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L431" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D436" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E436" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F436" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G436" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H436" s="12" t="n">
+        <f aca="false">F436*G436</f>
+        <v>840</v>
+      </c>
+      <c r="I436" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K436" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L436" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D437" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E437" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F437" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G437" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H437" s="12" t="n">
+        <f aca="false">F437*G437</f>
+        <v>540</v>
+      </c>
+      <c r="I437" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J437" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K437" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L437" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D438" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E438" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F438" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G438" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H438" s="12" t="n">
+        <f aca="false">F438*G438</f>
+        <v>312</v>
+      </c>
+      <c r="I438" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J438" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K438" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L438" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D439" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E439" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F439" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G439" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H439" s="12" t="n">
+        <f aca="false">F439*G439</f>
+        <v>295</v>
+      </c>
+      <c r="I439" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J439" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K439" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L439" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D440" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E440" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F440" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G440" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H440" s="12" t="n">
+        <f aca="false">F440*G440</f>
+        <v>780</v>
+      </c>
+      <c r="I440" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J440" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K440" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L440" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D441" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E441" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F441" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G441" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H441" s="12" t="n">
+        <f aca="false">F441*G441</f>
+        <v>215</v>
+      </c>
+      <c r="I441" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J441" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K441" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L441" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E442" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F442" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G442" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H442" s="12" t="n">
+        <f aca="false">F442*G442</f>
+        <v>375</v>
+      </c>
+      <c r="I442" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J442" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K442" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L442" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D443" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E443" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F443" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G443" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H443" s="12" t="n">
+        <f aca="false">F443*G443</f>
+        <v>52</v>
+      </c>
+      <c r="I443" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J443" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K443" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L443" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E444" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F444" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G444" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H444" s="12" t="n">
+        <f aca="false">F444*G444</f>
+        <v>177</v>
+      </c>
+      <c r="I444" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J444" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K444" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L444" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D445" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E445" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F445" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G445" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H445" s="12" t="n">
+        <f aca="false">F445*G445</f>
+        <v>225</v>
+      </c>
+      <c r="I445" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J445" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K445" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L445" s="15" t="n">
         <v>18865085002</v>
       </c>
     </row>
@@ -16761,20 +17339,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4566929133858"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="148.543307086614"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.7913385826772"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.0196850393701"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="36.6653543307087"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.0196850393701"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.1259842519685"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6653543307087"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.5826771653543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="192.602362204724"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="116.456692913386"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.5826771653543"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="47.3976377952756"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="87.9173228346457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="88.2283464566929"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -16787,7 +17365,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -17335,16 +17913,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="125"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="125.937007874016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.1259842519685"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6653543307087"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="161.874015748032"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="163.228346456693"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.2283464566929"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -17429,7 +18007,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -17441,7 +18019,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -17453,7 +18031,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -17465,7 +18043,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -17537,10 +18115,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -17564,7 +18142,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -17597,10 +18175,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -17621,7 +18199,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -17633,7 +18211,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -17696,7 +18274,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -17708,7 +18286,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -17717,10 +18295,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -17744,7 +18322,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -17753,10 +18331,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -17765,10 +18343,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -17777,10 +18355,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="198">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2672,7 +2672,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2782,6 +2782,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
@@ -2808,7 +2819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2828,6 +2839,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2867,7 +2885,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3004,7 +3022,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3094,11 +3124,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.897637795276"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5866141732283"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="125.937007874016"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.791338582677"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3543307086614"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="137.291338582677"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3231,25 +3261,27 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L445"/>
+  <dimension ref="A1:L453"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B407" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C447" activeCellId="0" sqref="C447"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A428" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C452" activeCellId="0" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.10236220472441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8110236220472"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3346456692913"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="41.0433070866142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0826771653543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.98031496062992"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.16535433070866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3976377952756"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3346456692913"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="10.7283464566929"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="20.3110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.51968503937008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9566929133858"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1889763779528"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="44.6889763779528"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4803149606299"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.60236220472441"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3740157480315"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.3110236220472"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="11.6653543307087"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="22.0826771653543"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16979,6 +17011,26 @@
         <v>18678537472</v>
       </c>
     </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D432" s="0"/>
+      <c r="K432" s="0"/>
+      <c r="L432" s="0"/>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D433" s="0"/>
+      <c r="K433" s="0"/>
+      <c r="L433" s="0"/>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D434" s="0"/>
+      <c r="K434" s="0"/>
+      <c r="L434" s="0"/>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D435" s="0"/>
+      <c r="K435" s="0"/>
+      <c r="L435" s="0"/>
+    </row>
     <row r="436" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="10" t="s">
         <v>171</v>
@@ -17307,6 +17359,171 @@
       </c>
       <c r="L445" s="15" t="n">
         <v>18865085002</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E449" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F449" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G449" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H449" s="12" t="n">
+        <f aca="false">F449*G449</f>
+        <v>3780</v>
+      </c>
+      <c r="I449" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J449" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K449" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L449" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D450" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E450" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F450" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G450" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H450" s="12" t="n">
+        <f aca="false">F450*G450</f>
+        <v>546</v>
+      </c>
+      <c r="I450" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J450" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K450" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L450" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E451" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F451" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G451" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H451" s="12" t="n">
+        <f aca="false">F451*G451</f>
+        <v>1260</v>
+      </c>
+      <c r="I451" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J451" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K451" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L451" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E452" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F452" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="G452" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H452" s="12" t="n">
+        <f aca="false">F452*G452</f>
+        <v>2520</v>
+      </c>
+      <c r="I452" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J452" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K452" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L452" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D453" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E453" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F453" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G453" s="28" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="H453" s="12" t="n">
+        <f aca="false">F453*G453</f>
+        <v>1760</v>
+      </c>
+      <c r="I453" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J453" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K453" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L453" s="15" t="n">
+        <v>13290196757</v>
       </c>
     </row>
   </sheetData>
@@ -17339,15 +17556,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6653543307087"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.5826771653543"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="192.602362204724"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="116.456692913386"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.5826771653543"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="47.3976377952756"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="87.9173228346457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="88.2283464566929"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.3543307086614"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.7716535433071"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="210"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="126.98031496063"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.125984251969"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.6653543307087"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.8346456692913"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="96.1456692913386"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17456,7 +17673,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="34"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -17913,11 +18130,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6653543307087"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="161.874015748032"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="163.228346456693"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.2283464566929"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.3543307086614"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="176.562992125984"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="177.917322834646"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.1456692913386"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="198">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2672,7 +2672,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2779,17 +2779,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3026,15 +3015,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3119,16 +3108,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="C461:L467 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8110236220472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.791338582677"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3543307086614"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="137.291338582677"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="142.397637795276"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3110236220472"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="163.228346456693"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3261,27 +3250,27 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L453"/>
+  <dimension ref="A1:L467"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A428" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C452" activeCellId="0" sqref="C452"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C423" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C461" activeCellId="0" sqref="C461:L467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.51968503937008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9566929133858"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1889763779528"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="44.6889763779528"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4803149606299"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.60236220472441"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3740157480315"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.3110236220472"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.16535433070866"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="11.6653543307087"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="22.0826771653543"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.35433070866142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5629921259843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.1456692913386"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="53.0196850393701"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.85433070866142"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9566929133858"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8976377952756"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="13.751968503937"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="26.251968503937"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17361,6 +17350,21 @@
         <v>18865085002</v>
       </c>
     </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D446" s="0"/>
+      <c r="K446" s="0"/>
+      <c r="L446" s="0"/>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D447" s="0"/>
+      <c r="K447" s="0"/>
+      <c r="L447" s="0"/>
+    </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D448" s="0"/>
+      <c r="K448" s="0"/>
+      <c r="L448" s="0"/>
+    </row>
     <row r="449" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="34" t="s">
         <v>109</v>
@@ -17523,6 +17527,288 @@
         <v>69</v>
       </c>
       <c r="L453" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D454" s="0"/>
+      <c r="K454" s="0"/>
+      <c r="L454" s="0"/>
+    </row>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D455" s="0"/>
+      <c r="K455" s="0"/>
+      <c r="L455" s="0"/>
+    </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D456" s="0"/>
+      <c r="K456" s="0"/>
+      <c r="L456" s="0"/>
+    </row>
+    <row r="457" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D457" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E457" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F457" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G457" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H457" s="12" t="n">
+        <f aca="false">F457*G457</f>
+        <v>750</v>
+      </c>
+      <c r="I457" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J457" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K457" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L457" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D461" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E461" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F461" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G461" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H461" s="12" t="n">
+        <f aca="false">F461*G461</f>
+        <v>104</v>
+      </c>
+      <c r="I461" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J461" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K461" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L461" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D462" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E462" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F462" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G462" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H462" s="12" t="n">
+        <f aca="false">F462*G462</f>
+        <v>215</v>
+      </c>
+      <c r="I462" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J462" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K462" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L462" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D463" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E463" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F463" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G463" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H463" s="12" t="n">
+        <f aca="false">F463*G463</f>
+        <v>375</v>
+      </c>
+      <c r="I463" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J463" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K463" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L463" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E464" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F464" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G464" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H464" s="12" t="n">
+        <f aca="false">F464*G464</f>
+        <v>1260</v>
+      </c>
+      <c r="I464" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J464" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K464" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L464" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E465" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F465" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G465" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H465" s="12" t="n">
+        <f aca="false">F465*G465</f>
+        <v>108</v>
+      </c>
+      <c r="I465" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J465" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K465" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L465" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D466" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E466" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F466" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G466" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H466" s="12" t="n">
+        <f aca="false">F466*G466</f>
+        <v>1260</v>
+      </c>
+      <c r="I466" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J466" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K466" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L466" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D467" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E467" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F467" s="15" t="n">
+        <v>300</v>
+      </c>
+      <c r="G467" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H467" s="12" t="n">
+        <f aca="false">F467*G467</f>
+        <v>2730</v>
+      </c>
+      <c r="I467" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J467" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K467" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L467" s="15" t="n">
         <v>13290196757</v>
       </c>
     </row>
@@ -17551,20 +17837,20 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="C461:L467 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.3543307086614"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.7716535433071"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="210"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="126.98031496063"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.125984251969"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="51.6653543307087"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.8346456692913"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="96.1456692913386"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.9803149606299"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.125984251969"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="249.688976377953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="150.937007874016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="122.5"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="61.4566929133858"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="113.956692913386"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="114.271653543307"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18125,16 +18411,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C461:L467 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.3543307086614"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="176.562992125984"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="177.917322834646"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.1456692913386"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.9803149606299"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="210"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="211.562992125984"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.271653543307"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="hidden" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="199">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2034,6 +2034,9 @@
   </si>
   <si>
     <t xml:space="preserve">山东单县天奇医药有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野百草堂大药房</t>
   </si>
   <si>
     <r>
@@ -3108,16 +3111,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="C461:L467 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16535433070866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="142.397637795276"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3110236220472"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="163.228346456693"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="155.208661417323"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="177.917322834646"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3250,27 +3253,27 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L467"/>
+  <dimension ref="A1:L472"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C423" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C461" activeCellId="0" sqref="C461:L467"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B464" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C472" activeCellId="0" sqref="C472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.35433070866142"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5629921259843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.1456692913386"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="53.0196850393701"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.85433070866142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7716535433071"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9566929133858"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8976377952756"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8346456692913"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="13.751968503937"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="26.251968503937"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.98031496062992"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0196850393701"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.1456692913386"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="57.7086614173228"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.1259842519685"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.68897637795276"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.5629921259843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6023622047244"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="14.8976377952756"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="28.5433070866142"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17581,6 +17584,21 @@
         <v>18678537472</v>
       </c>
     </row>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D458" s="0"/>
+      <c r="K458" s="0"/>
+      <c r="L458" s="0"/>
+    </row>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D459" s="0"/>
+      <c r="K459" s="0"/>
+      <c r="L459" s="0"/>
+    </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D460" s="0"/>
+      <c r="K460" s="0"/>
+      <c r="L460" s="0"/>
+    </row>
     <row r="461" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="16" t="s">
         <v>71</v>
@@ -17810,6 +17828,105 @@
       </c>
       <c r="L467" s="15" t="n">
         <v>13290196757</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D470" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F470" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G470" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H470" s="12" t="n">
+        <f aca="false">F470*G470</f>
+        <v>360</v>
+      </c>
+      <c r="I470" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J470" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K470" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L470" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E471" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F471" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G471" s="28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H471" s="12" t="n">
+        <f aca="false">F471*G471</f>
+        <v>10.6</v>
+      </c>
+      <c r="I471" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J471" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K471" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L471" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D472" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E472" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F472" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G472" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H472" s="12" t="n">
+        <f aca="false">F472*G472</f>
+        <v>360</v>
+      </c>
+      <c r="I472" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J472" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K472" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L472" s="15" t="n">
+        <v>17854079333</v>
       </c>
     </row>
   </sheetData>
@@ -17837,25 +17954,25 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="C461:L467 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.9803149606299"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.125984251969"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="249.688976377953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="150.937007874016"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="122.5"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="61.4566929133858"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="113.956692913386"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="114.271653543307"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.0196850393701"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.397637795276"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2755905511811"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="164.48031496063"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="133.543307086614"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.9803149606299"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="124.271653543307"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="124.582677165354"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -17868,7 +17985,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -18411,21 +18528,21 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C461:L467 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.9803149606299"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="210"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="211.562992125984"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.271653543307"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.16535433070866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.0196850393701"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="228.956692913386"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="230.728346456693"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="124.582677165354"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -18510,7 +18627,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -18522,7 +18639,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -18534,7 +18651,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -18546,7 +18663,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -18618,10 +18735,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -18645,7 +18762,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -18678,10 +18795,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -18702,7 +18819,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -18714,7 +18831,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -18777,7 +18894,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -18789,7 +18906,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -18798,10 +18915,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -18825,7 +18942,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -18834,10 +18951,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -18846,10 +18963,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -18858,10 +18975,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="200">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2037,6 +2037,9 @@
   </si>
   <si>
     <t xml:space="preserve">巨野百草堂大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野万丰康民大药房</t>
   </si>
   <si>
     <r>
@@ -3111,16 +3114,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="C476:L478 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="155.208661417323"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="177.917322834646"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="169.165354330709"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8976377952756"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="193.956692913386"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3253,27 +3256,27 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L472"/>
+  <dimension ref="A1:L478"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B464" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C472" activeCellId="0" sqref="C472"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C463" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C476" activeCellId="0" sqref="C476:L478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.98031496062992"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0196850393701"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.1456692913386"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="57.7086614173228"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.1259842519685"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.68897637795276"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8110236220472"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.5629921259843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6023622047244"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.7716535433071"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="14.8976377952756"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="28.5433070866142"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60236220472441"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5826771653543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.5629921259843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="62.9173228346457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.4566929133858"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5196850393701"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9566929133858"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.3740157480315"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.5196850393701"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="16.251968503937"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="31.0433070866142"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.8110236220472"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17830,6 +17833,16 @@
         <v>13290196757</v>
       </c>
     </row>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D468" s="0"/>
+      <c r="K468" s="0"/>
+      <c r="L468" s="0"/>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D469" s="0"/>
+      <c r="K469" s="0"/>
+      <c r="L469" s="0"/>
+    </row>
     <row r="470" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="10" t="s">
         <v>168</v>
@@ -17926,6 +17939,105 @@
         <v>49</v>
       </c>
       <c r="L472" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D476" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E476" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F476" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G476" s="2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H476" s="12" t="n">
+        <f aca="false">F476*G476</f>
+        <v>304</v>
+      </c>
+      <c r="I476" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J476" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K476" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L476" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D477" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E477" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F477" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G477" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H477" s="12" t="n">
+        <f aca="false">F477*G477</f>
+        <v>430</v>
+      </c>
+      <c r="I477" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J477" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K477" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L477" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D478" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E478" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F478" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G478" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H478" s="12" t="n">
+        <f aca="false">F478*G478</f>
+        <v>520</v>
+      </c>
+      <c r="I478" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J478" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K478" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L478" s="15" t="n">
         <v>17854079333</v>
       </c>
     </row>
@@ -17954,25 +18066,25 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="C476:L478 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.0196850393701"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.397637795276"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2755905511811"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="164.48031496063"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="133.543307086614"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="66.9803149606299"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="124.271653543307"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="124.582677165354"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.5826771653543"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="122.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5196850393701"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="179.374015748032"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="145.51968503937"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="73.0196850393701"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="135.51968503937"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.834645669291"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -17985,7 +18097,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -18528,21 +18640,21 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C476:L478 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.0196850393701"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="228.956692913386"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="230.728346456693"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="124.582677165354"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.5826771653543"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="249.688976377953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="251.562992125984"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="135.834645669291"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -18627,7 +18739,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -18639,7 +18751,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -18651,7 +18763,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -18663,7 +18775,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -18735,10 +18847,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -18762,7 +18874,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -18795,10 +18907,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -18819,7 +18931,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -18831,7 +18943,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -18894,7 +19006,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -18906,7 +19018,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -18915,10 +19027,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -18942,7 +19054,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -18951,10 +19063,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -18963,10 +19075,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -18975,10 +19087,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="hidden" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="201">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2040,6 +2040,9 @@
   </si>
   <si>
     <t xml:space="preserve">巨野万丰康民大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨野民生大药房</t>
   </si>
   <si>
     <r>
@@ -3114,16 +3117,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="C476:L478 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="169.165354330709"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8976377952756"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="193.956692913386"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="184.48031496063"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6023622047244"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="211.562992125984"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3256,27 +3259,25 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L478"/>
+  <dimension ref="A1:L485"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C463" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C476" activeCellId="0" sqref="C476:L478"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A450" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C491" activeCellId="0" sqref="C491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60236220472441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5826771653543"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.5629921259843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="62.9173228346457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.4566929133858"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5196850393701"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9566929133858"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.3740157480315"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.5196850393701"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8110236220472"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="16.251968503937"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="31.0433070866142"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="12.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.22834645669291"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3543307086614"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.6023622047244"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="68.5433070866142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.2086614173228"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3543307086614"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2086614173228"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.6456692913386"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="17.6023622047244"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="33.751968503937"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17942,6 +17943,21 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D473" s="0"/>
+      <c r="K473" s="0"/>
+      <c r="L473" s="0"/>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D474" s="0"/>
+      <c r="K474" s="0"/>
+      <c r="L474" s="0"/>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D475" s="0"/>
+      <c r="K475" s="0"/>
+      <c r="L475" s="0"/>
+    </row>
     <row r="476" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="19" t="s">
         <v>177</v>
@@ -18039,6 +18055,138 @@
       </c>
       <c r="L478" s="15" t="n">
         <v>17854079333</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D482" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E482" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F482" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G482" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H482" s="12" t="n">
+        <f aca="false">F482*G482</f>
+        <v>360</v>
+      </c>
+      <c r="I482" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J482" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K482" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L482" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D483" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F483" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G483" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H483" s="12" t="n">
+        <f aca="false">F483*G483</f>
+        <v>1260</v>
+      </c>
+      <c r="I483" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J483" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K483" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L483" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D484" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F484" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G484" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H484" s="12" t="n">
+        <f aca="false">F484*G484</f>
+        <v>420</v>
+      </c>
+      <c r="I484" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J484" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K484" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L484" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D485" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E485" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F485" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G485" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H485" s="12" t="n">
+        <f aca="false">F485*G485</f>
+        <v>590</v>
+      </c>
+      <c r="I485" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J485" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K485" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L485" s="15" t="n">
+        <v>18678537472</v>
       </c>
     </row>
   </sheetData>
@@ -18066,25 +18214,25 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="C476:L478 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.5826771653543"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="122.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5196850393701"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="179.374015748032"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="145.51968503937"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="73.0196850393701"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="135.51968503937"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.834645669291"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.7716535433071"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="133.543307086614"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8740157480315"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="195.625984251969"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="158.645669291339"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="79.5826771653543"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="147.708661417323"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="148.01968503937"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -18097,7 +18245,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -18640,21 +18788,20 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C476:L478 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.5826771653543"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="249.688976377953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="251.562992125984"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="135.834645669291"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.7716535433071"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.2755905511811"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="148.01968503937"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -18739,7 +18886,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -18751,7 +18898,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -18763,7 +18910,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -18775,7 +18922,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -18847,10 +18994,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -18874,7 +19021,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -18907,10 +19054,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -18931,7 +19078,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -18943,7 +19090,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -19006,7 +19153,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -19018,7 +19165,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -19027,10 +19174,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -19054,7 +19201,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -19063,10 +19210,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -19075,10 +19222,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -19087,10 +19234,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D37" s="17"/>
     </row>

--- a/jie/waiyao/1.xlsx
+++ b/jie/waiyao/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="202">
   <si>
     <t xml:space="preserve">临沂交接</t>
   </si>
@@ -2043,6 +2043,9 @@
   </si>
   <si>
     <t xml:space="preserve">巨野民生大药房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">菏泽泙湖大药房医药连锁有限公司</t>
   </si>
   <si>
     <r>
@@ -3117,16 +3120,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="C502:L502 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7716535433071"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="184.48031496063"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6023622047244"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="211.562992125984"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.81889763779528"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8346456692913"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8110236220472"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3259,25 +3262,27 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L485"/>
+  <dimension ref="A1:L502"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A450" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C491" activeCellId="0" sqref="C491"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B475" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C502" activeCellId="0" sqref="C502:L502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.22834645669291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3543307086614"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.6023622047244"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="68.5433070866142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.2086614173228"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3543307086614"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2086614173228"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.6456692913386"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="17.6023622047244"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="33.751968503937"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8346456692913"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8976377952756"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.708661417323"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="96.8740157480315"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.751968503937"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8346456692913"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3543307086614"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.7086614173228"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="54.3740157480315"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="24.6889763779528"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="47.3976377952756"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.7716535433071"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18057,6 +18062,21 @@
         <v>17854079333</v>
       </c>
     </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D479" s="0"/>
+      <c r="K479" s="0"/>
+      <c r="L479" s="0"/>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D480" s="0"/>
+      <c r="K480" s="0"/>
+      <c r="L480" s="0"/>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D481" s="0"/>
+      <c r="K481" s="0"/>
+      <c r="L481" s="0"/>
+    </row>
     <row r="482" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="19" t="s">
         <v>178</v>
@@ -18186,6 +18206,300 @@
         <v>46</v>
       </c>
       <c r="L485" s="15" t="n">
+        <v>18678537472</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D486" s="0"/>
+      <c r="K486" s="0"/>
+      <c r="L486" s="0"/>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D487" s="0"/>
+      <c r="K487" s="0"/>
+      <c r="L487" s="0"/>
+    </row>
+    <row r="488" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D488" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F488" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G488" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H488" s="12" t="n">
+        <f aca="false">F488*G488</f>
+        <v>1260</v>
+      </c>
+      <c r="I488" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J488" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K488" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L488" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D489" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E489" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F489" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G489" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H489" s="12" t="n">
+        <f aca="false">F489*G489</f>
+        <v>216</v>
+      </c>
+      <c r="I489" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J489" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K489" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L489" s="15" t="n">
+        <v>17854079333</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D490" s="0"/>
+      <c r="K490" s="0"/>
+      <c r="L490" s="0"/>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D491" s="0"/>
+      <c r="K491" s="0"/>
+      <c r="L491" s="0"/>
+    </row>
+    <row r="492" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C492" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D492" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E492" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F492" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="G492" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H492" s="12" t="n">
+        <f aca="false">F492*G492</f>
+        <v>1080</v>
+      </c>
+      <c r="I492" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J492" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K492" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L492" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C493" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E493" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F493" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G493" s="2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H493" s="12" t="n">
+        <f aca="false">F493*G493</f>
+        <v>590</v>
+      </c>
+      <c r="I493" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J493" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K493" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L493" s="15" t="n">
+        <v>13290196757</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D494" s="0"/>
+      <c r="K494" s="0"/>
+      <c r="L494" s="0"/>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D495" s="0"/>
+      <c r="K495" s="0"/>
+      <c r="L495" s="0"/>
+    </row>
+    <row r="496" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C496" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D496" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E496" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F496" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="G496" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H496" s="12" t="n">
+        <f aca="false">F496*G496</f>
+        <v>3780</v>
+      </c>
+      <c r="I496" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J496" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K496" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L496" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C497" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D497" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E497" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F497" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="G497" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H497" s="12" t="n">
+        <f aca="false">F497*G497</f>
+        <v>324</v>
+      </c>
+      <c r="I497" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J497" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K497" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L497" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C498" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D498" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E498" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F498" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="G498" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H498" s="12" t="n">
+        <f aca="false">F498*G498</f>
+        <v>572</v>
+      </c>
+      <c r="I498" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J498" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K498" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L498" s="15" t="n">
+        <v>18865085002</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D502" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E502" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F502" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G502" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H502" s="12" t="n">
+        <f aca="false">F502*G502</f>
+        <v>1800</v>
+      </c>
+      <c r="I502" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J502" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K502" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L502" s="15" t="n">
         <v>18678537472</v>
       </c>
     </row>
@@ -18214,25 +18528,25 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="C502:L502 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.7716535433071"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="133.543307086614"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8740157480315"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="195.625984251969"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="158.645669291339"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="79.5826771653543"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="147.708661417323"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="148.01968503937"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="122.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="188.543307086614"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6456692913386"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4409448818898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="224.062992125984"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="112.397637795276"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="208.645669291339"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="209.165354330709"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -18245,7 +18559,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -18788,20 +19102,20 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C502:L502 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.7716535433071"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.2755905511811"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="148.01968503937"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.7716535433071"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="122.5"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.8976377952756"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="209.165354330709"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -18886,7 +19200,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>136</v>
@@ -18898,7 +19212,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>136</v>
@@ -18910,7 +19224,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>136</v>
@@ -18922,7 +19236,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>136</v>
@@ -18994,10 +19308,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -19021,7 +19335,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -19054,10 +19368,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -19078,7 +19392,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>119</v>
@@ -19090,7 +19404,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>55</v>
@@ -19153,7 +19467,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -19165,7 +19479,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -19174,10 +19488,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="D32" s="17"/>
     </row>
@@ -19201,7 +19515,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D34" s="17"/>
     </row>
@@ -19210,10 +19524,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D35" s="17"/>
     </row>
@@ -19222,10 +19536,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" s="17"/>
     </row>
@@ -19234,10 +19548,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D37" s="17"/>
     </row>
